--- a/コピー厚生労働省全体.xlsx
+++ b/コピー厚生労働省全体.xlsx
@@ -1595,7 +1595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,6 +1611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1832,16 +1838,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1850,25 +1877,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2174,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:E77"/>
+    <sheetView tabSelected="1" topLeftCell="C193" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212:D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2197,27 +2209,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="7"/>
       <c r="D1" s="9"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
       <c r="E2" s="6"/>
@@ -2247,10 +2259,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -2258,7 +2270,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <v>799</v>
       </c>
       <c r="G3" s="2">
@@ -2266,7 +2278,7 @@
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="20">
+      <c r="J3" s="17">
         <v>608</v>
       </c>
       <c r="K3" s="2">
@@ -2276,25 +2288,25 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17">
         <v>782</v>
       </c>
       <c r="H4" s="2">
         <v>780</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
         <v>601</v>
       </c>
       <c r="L4" s="2">
@@ -2303,52 +2315,52 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="23" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="2">
         <v>2.5</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="2">
         <v>2.5</v>
       </c>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="16"/>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>309</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>239</v>
       </c>
       <c r="H6" s="2">
         <v>49</v>
       </c>
       <c r="I6" s="12"/>
-      <c r="J6" s="20">
+      <c r="J6" s="17">
         <v>256</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="17">
         <v>190</v>
       </c>
       <c r="L6" s="2">
@@ -2357,130 +2369,130 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="2">
         <v>139</v>
       </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="2">
         <v>113</v>
       </c>
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="2">
         <v>15</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="2">
         <v>7.7</v>
       </c>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="2">
         <v>20</v>
       </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="2">
         <v>11</v>
       </c>
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="2">
         <v>133</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="2">
         <v>90</v>
       </c>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2">
         <v>2.5</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="2">
         <v>2.4</v>
       </c>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
         <v>70</v>
       </c>
       <c r="H12" s="2">
         <v>45</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20">
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
         <v>60</v>
       </c>
       <c r="L12" s="2">
@@ -2489,88 +2501,88 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="2">
         <v>46</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="2">
         <v>37</v>
       </c>
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="2">
         <v>1.2</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2">
         <v>1.2</v>
       </c>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="2">
         <v>22</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="2">
         <v>21</v>
       </c>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="16"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
         <v>94</v>
       </c>
       <c r="H16" s="2">
         <v>82</v>
       </c>
       <c r="I16" s="12"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17">
         <v>81</v>
       </c>
       <c r="L16" s="2">
@@ -2579,50 +2591,50 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="14" t="s">
         <v>405</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="2">
         <v>2.5</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="2">
         <v>1.6</v>
       </c>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="2">
         <v>10</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="2">
         <v>9.4</v>
       </c>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -2630,7 +2642,7 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>7.5</v>
       </c>
       <c r="G19" s="2">
@@ -2638,7 +2650,7 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="20">
+      <c r="J19" s="17">
         <v>6.8</v>
       </c>
       <c r="K19" s="2">
@@ -2648,20 +2660,20 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="14" t="s">
         <v>406</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="13">
         <v>0.71</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="20"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="2">
         <v>0.36</v>
       </c>
@@ -2669,20 +2681,20 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="2">
         <v>0.89</v>
       </c>
@@ -2690,8 +2702,8 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -2699,7 +2711,7 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>760</v>
       </c>
       <c r="G22" s="2">
@@ -2707,7 +2719,7 @@
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="20">
+      <c r="J22" s="17">
         <v>320</v>
       </c>
       <c r="K22" s="2">
@@ -2717,20 +2729,20 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="2">
         <v>274</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="20"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="2">
         <v>208</v>
       </c>
@@ -2738,25 +2750,25 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <v>420</v>
       </c>
       <c r="H24" s="2">
         <v>55</v>
       </c>
       <c r="I24" s="12"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17">
         <v>108</v>
       </c>
       <c r="L24" s="2">
@@ -2765,52 +2777,52 @@
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="16"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="2">
         <v>384</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="2">
         <v>87</v>
       </c>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="20">
+      <c r="F26" s="17">
         <v>205</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="17">
         <v>127</v>
       </c>
       <c r="H26" s="2">
         <v>63</v>
       </c>
       <c r="I26" s="12"/>
-      <c r="J26" s="20">
+      <c r="J26" s="17">
         <v>219</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="17">
         <v>151</v>
       </c>
       <c r="L26" s="2">
@@ -2819,46 +2831,46 @@
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="16"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="2">
         <v>64</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="2">
         <v>54</v>
       </c>
       <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
         <v>50</v>
       </c>
       <c r="H28" s="2">
         <v>49</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20">
+      <c r="J28" s="17"/>
+      <c r="K28" s="17">
         <v>40</v>
       </c>
       <c r="L28" s="2">
@@ -2867,39 +2879,39 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="2">
         <v>1.4</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="2"/>
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="2">
         <v>27</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="20"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="2">
         <v>29</v>
       </c>
@@ -2907,31 +2919,31 @@
       <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <v>432</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="17">
         <v>268</v>
       </c>
       <c r="H31" s="2">
         <v>242</v>
       </c>
       <c r="I31" s="12"/>
-      <c r="J31" s="20">
+      <c r="J31" s="17">
         <v>405</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="17">
         <v>232</v>
       </c>
       <c r="L31" s="2">
@@ -2940,65 +2952,65 @@
       <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="2">
         <v>26</v>
       </c>
       <c r="I32" s="12"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="2">
         <v>16</v>
       </c>
       <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="16"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I33" s="12"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="2"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20">
+      <c r="E34" s="31"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17">
         <v>164</v>
       </c>
       <c r="H34" s="2">
         <v>80</v>
       </c>
       <c r="I34" s="12"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20">
+      <c r="J34" s="17"/>
+      <c r="K34" s="17">
         <v>173</v>
       </c>
       <c r="L34" s="2">
@@ -3007,54 +3019,54 @@
       <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="2">
         <v>84</v>
       </c>
       <c r="I35" s="12"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="2">
         <v>87</v>
       </c>
       <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="16"/>
-      <c r="F36" s="20">
+      <c r="F36" s="17">
         <v>969</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="17">
         <v>673</v>
       </c>
       <c r="H36" s="2">
         <v>171</v>
       </c>
       <c r="I36" s="12"/>
-      <c r="J36" s="20">
+      <c r="J36" s="17">
         <v>505</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="17">
         <v>342</v>
       </c>
       <c r="L36" s="2">
@@ -3063,46 +3075,46 @@
       <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="16"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="2">
         <v>503</v>
       </c>
       <c r="I37" s="12"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="2">
         <v>204</v>
       </c>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17">
         <v>296</v>
       </c>
       <c r="H38" s="2">
         <v>6.6</v>
       </c>
       <c r="I38" s="12"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20">
+      <c r="J38" s="17"/>
+      <c r="K38" s="17">
         <v>163</v>
       </c>
       <c r="L38" s="2">
@@ -3111,71 +3123,71 @@
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="2">
         <v>3.9</v>
       </c>
       <c r="I39" s="12"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="2">
         <v>3.7</v>
       </c>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="16"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="2">
         <v>285</v>
       </c>
       <c r="I40" s="12"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="2">
         <v>151</v>
       </c>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="16"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="2">
         <v>0.66</v>
       </c>
       <c r="I41" s="12"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="2">
         <v>0.2</v>
       </c>
       <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -3183,7 +3195,7 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
-      <c r="F42" s="20">
+      <c r="F42" s="17">
         <v>590</v>
       </c>
       <c r="G42" s="2">
@@ -3191,7 +3203,7 @@
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="20">
+      <c r="J42" s="17">
         <v>295</v>
       </c>
       <c r="K42" s="2">
@@ -3201,20 +3213,20 @@
       <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="14" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
-      <c r="F43" s="20"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="2">
         <v>77</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="20"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="2">
         <v>79</v>
       </c>
@@ -3222,20 +3234,20 @@
       <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="16"/>
-      <c r="F44" s="20"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="20"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="2">
         <v>3.8</v>
       </c>
@@ -3243,20 +3255,20 @@
       <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="2">
         <v>1.2</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="20"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="2">
         <v>0.24</v>
       </c>
@@ -3264,20 +3276,20 @@
       <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="20"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="2">
         <v>424</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="20"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="2">
         <v>126</v>
       </c>
@@ -3285,8 +3297,8 @@
       <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="14" t="s">
@@ -3294,7 +3306,7 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="16"/>
-      <c r="F47" s="20">
+      <c r="F47" s="17">
         <v>28</v>
       </c>
       <c r="G47" s="2">
@@ -3302,7 +3314,7 @@
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="20">
+      <c r="J47" s="17">
         <v>19</v>
       </c>
       <c r="K47" s="2">
@@ -3312,20 +3324,20 @@
       <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="20"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="2">
         <v>27</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="20"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="2">
         <v>19</v>
       </c>
@@ -3333,8 +3345,8 @@
       <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -3342,7 +3354,7 @@
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="16"/>
-      <c r="F49" s="20">
+      <c r="F49" s="17">
         <v>170</v>
       </c>
       <c r="G49" s="2">
@@ -3350,7 +3362,7 @@
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="20">
+      <c r="J49" s="17">
         <v>145</v>
       </c>
       <c r="K49" s="2">
@@ -3360,20 +3372,20 @@
       <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="14" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="16"/>
-      <c r="F50" s="20"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="2">
         <v>5.5</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="20"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="2">
         <v>1.7</v>
       </c>
@@ -3381,20 +3393,20 @@
       <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="14" t="s">
         <v>407</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="16"/>
-      <c r="F51" s="20"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="2">
         <v>138</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="20"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="2">
         <v>131</v>
       </c>
@@ -3402,20 +3414,20 @@
       <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="20"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="2">
         <v>3.1</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="20"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="2">
         <v>2</v>
       </c>
@@ -3423,8 +3435,8 @@
       <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -3432,7 +3444,7 @@
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="20">
+      <c r="F53" s="17">
         <v>349</v>
       </c>
       <c r="G53" s="2">
@@ -3440,7 +3452,7 @@
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="20">
+      <c r="J53" s="17">
         <v>291</v>
       </c>
       <c r="K53" s="2">
@@ -3450,20 +3462,20 @@
       <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="16"/>
-      <c r="F54" s="20"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="2">
         <v>51</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="20"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="2">
         <v>26</v>
       </c>
@@ -3471,20 +3483,20 @@
       <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="20"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="2">
         <v>174</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="20"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="2">
         <v>166</v>
       </c>
@@ -3492,20 +3504,20 @@
       <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="16"/>
-      <c r="F56" s="20"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="2">
         <v>92</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="20"/>
+      <c r="J56" s="17"/>
       <c r="K56" s="2">
         <v>71</v>
       </c>
@@ -3513,8 +3525,8 @@
       <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="22" t="s">
         <v>77</v>
       </c>
       <c r="C57" s="14" t="s">
@@ -3522,7 +3534,7 @@
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="20">
+      <c r="F57" s="17">
         <v>54</v>
       </c>
       <c r="G57" s="2">
@@ -3530,7 +3542,7 @@
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="20">
+      <c r="J57" s="17">
         <v>54</v>
       </c>
       <c r="K57" s="2">
@@ -3540,20 +3552,20 @@
       <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
-      <c r="F58" s="20"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="20"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="2">
         <v>3.7</v>
       </c>
@@ -3561,25 +3573,25 @@
       <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="17" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="22" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>81</v>
       </c>
       <c r="E59" s="16"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17">
         <v>13</v>
       </c>
       <c r="H59" s="2">
         <v>7.7</v>
       </c>
       <c r="I59" s="12"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20">
+      <c r="J59" s="17"/>
+      <c r="K59" s="17">
         <v>14</v>
       </c>
       <c r="L59" s="2">
@@ -3588,41 +3600,41 @@
       <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="2">
         <v>5.5</v>
       </c>
       <c r="I60" s="12"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
       <c r="L60" s="2">
         <v>5.6</v>
       </c>
       <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D61" s="15"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="20"/>
+      <c r="F61" s="17"/>
       <c r="G61" s="2">
         <v>36</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="20"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="2">
         <v>36</v>
       </c>
@@ -3630,8 +3642,8 @@
       <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="14" t="s">
@@ -3639,7 +3651,7 @@
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="20">
+      <c r="F62" s="17">
         <v>105</v>
       </c>
       <c r="G62" s="2">
@@ -3647,7 +3659,7 @@
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="20">
+      <c r="J62" s="17">
         <v>91</v>
       </c>
       <c r="K62" s="2">
@@ -3657,20 +3669,20 @@
       <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="20"/>
+      <c r="F63" s="17"/>
       <c r="G63" s="2" t="s">
         <v>87</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="20"/>
+      <c r="J63" s="17"/>
       <c r="K63" s="2" t="s">
         <v>88</v>
       </c>
@@ -3678,20 +3690,20 @@
       <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="20"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="2">
         <v>6.4</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="20"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="2">
         <v>6.3</v>
       </c>
@@ -3699,40 +3711,40 @@
       <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="22" t="s">
         <v>412</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="17">
         <v>379</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G65" s="17">
         <v>152</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="17">
         <v>15</v>
       </c>
       <c r="I65" s="2">
         <v>14</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="17">
         <v>363</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="17">
         <v>121</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="17">
         <v>9.1</v>
       </c>
       <c r="M65" s="2">
@@ -3740,47 +3752,47 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="2">
         <v>1.2</v>
       </c>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
       <c r="M66" s="2">
         <v>0.88</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="17" t="s">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="22" t="s">
         <v>94</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17">
         <v>37</v>
       </c>
       <c r="I67" s="2">
         <v>0.63</v>
       </c>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20">
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17">
         <v>18</v>
       </c>
       <c r="M67" s="2">
@@ -3788,172 +3800,172 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="2">
         <v>3.5</v>
       </c>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
       <c r="M68" s="2">
         <v>2.8</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="2">
         <v>12</v>
       </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
       <c r="M69" s="2">
         <v>4.5</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="2">
         <v>21</v>
       </c>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
       <c r="M70" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="14" t="s">
         <v>98</v>
       </c>
       <c r="E71" s="16"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="2">
         <v>2.4</v>
       </c>
       <c r="I71" s="12"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
       <c r="L71" s="2">
         <v>1.9</v>
       </c>
       <c r="M71" s="12"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
       <c r="D72" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E72" s="16"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="2">
         <v>1.3</v>
       </c>
       <c r="I72" s="12"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
       <c r="L72" s="2">
         <v>1.3</v>
       </c>
       <c r="M72" s="12"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="14" t="s">
         <v>100</v>
       </c>
       <c r="E73" s="16"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="2">
         <v>3.1</v>
       </c>
       <c r="I73" s="12"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
       <c r="L73" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="14" t="s">
         <v>101</v>
       </c>
       <c r="E74" s="16"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="2">
         <v>94</v>
       </c>
       <c r="I74" s="12"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
       <c r="L74" s="2">
         <v>88</v>
       </c>
       <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="17" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="22" t="s">
         <v>102</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E75" s="16"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17">
         <v>227</v>
       </c>
       <c r="H75" s="2">
         <v>160</v>
       </c>
       <c r="I75" s="12"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20">
+      <c r="J75" s="17"/>
+      <c r="K75" s="17">
         <v>242</v>
       </c>
       <c r="L75" s="2">
@@ -3962,160 +3974,160 @@
       <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
       <c r="D76" s="14" t="s">
         <v>104</v>
       </c>
       <c r="E76" s="16"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="2">
         <v>43</v>
       </c>
       <c r="I76" s="12"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
       <c r="L76" s="2">
         <v>42</v>
       </c>
       <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="26" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="I77" s="12"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
       <c r="L77" s="2"/>
       <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="14" t="s">
         <v>106</v>
       </c>
       <c r="E78" s="16"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="2">
         <v>17</v>
       </c>
       <c r="I78" s="12"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
       <c r="L78" s="2"/>
       <c r="M78" s="12"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E79" s="16"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="2">
         <v>4.7</v>
       </c>
       <c r="I79" s="12"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="2"/>
       <c r="M79" s="12"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="17" t="s">
+      <c r="A80" s="24"/>
+      <c r="B80" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="22" t="s">
         <v>110</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="17">
         <v>1068</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="17">
         <v>9.4</v>
       </c>
-      <c r="H80" s="20"/>
+      <c r="H80" s="17"/>
       <c r="I80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J80" s="17">
         <v>908</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="17">
         <v>6.2</v>
       </c>
-      <c r="L80" s="20"/>
+      <c r="L80" s="17"/>
       <c r="M80" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
       <c r="I81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
       <c r="M81" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="17" t="s">
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17">
         <v>5.6</v>
       </c>
       <c r="I82" s="2">
         <v>0.71</v>
       </c>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20">
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17">
         <v>3.7</v>
       </c>
       <c r="M82" s="2">
@@ -4123,47 +4135,47 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
       <c r="I83" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
       <c r="M83" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="17" t="s">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20">
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17">
         <v>1.3</v>
       </c>
       <c r="I84" s="2">
         <v>1</v>
       </c>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20">
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17">
         <v>0.99</v>
       </c>
       <c r="M84" s="2">
@@ -4171,237 +4183,237 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
       <c r="I85" s="2">
         <v>0.26</v>
       </c>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
       <c r="M85" s="2">
         <v>0.26</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="17" t="s">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="22" t="s">
         <v>124</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20">
+      <c r="F86" s="17"/>
+      <c r="G86" s="17">
         <v>103</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="17">
         <v>1.3</v>
       </c>
       <c r="I86" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20">
+      <c r="J86" s="17"/>
+      <c r="K86" s="17">
         <v>62</v>
       </c>
-      <c r="L86" s="20"/>
+      <c r="L86" s="17"/>
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
       <c r="I87" s="2">
         <v>0.19</v>
       </c>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
       <c r="D88" s="14" t="s">
         <v>409</v>
       </c>
       <c r="E88" s="16"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="2">
         <v>1.9</v>
       </c>
       <c r="I88" s="12"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
       <c r="L88" s="2">
         <v>1</v>
       </c>
       <c r="M88" s="12"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="14" t="s">
         <v>410</v>
       </c>
       <c r="E89" s="16"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="2">
         <v>0.95</v>
       </c>
       <c r="I89" s="12"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
       <c r="L89" s="2"/>
       <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
       <c r="D90" s="14" t="s">
         <v>411</v>
       </c>
       <c r="E90" s="16"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="2">
         <v>5.8</v>
       </c>
       <c r="I90" s="12"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
       <c r="L90" s="2">
         <v>6.3</v>
       </c>
       <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
       <c r="D91" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E91" s="16"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
       <c r="H91" s="2">
         <v>0.65</v>
       </c>
       <c r="I91" s="12"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
       <c r="L91" s="2"/>
       <c r="M91" s="12"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
       <c r="D92" s="14" t="s">
         <v>128</v>
       </c>
       <c r="E92" s="16"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="2">
         <v>63</v>
       </c>
       <c r="I92" s="12"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
       <c r="L92" s="2">
         <v>48</v>
       </c>
       <c r="M92" s="12"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
       <c r="D93" s="14" t="s">
         <v>129</v>
       </c>
       <c r="E93" s="16"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="2">
         <v>1.5</v>
       </c>
       <c r="I93" s="12"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
       <c r="L93" s="2">
         <v>1.5</v>
       </c>
       <c r="M93" s="12"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="14" t="s">
         <v>130</v>
       </c>
       <c r="E94" s="16"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="2">
         <v>29</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
       <c r="L94" s="2">
         <v>7.4</v>
       </c>
       <c r="M94" s="12"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="17" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="22" t="s">
         <v>131</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>132</v>
       </c>
       <c r="E95" s="16"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20">
+      <c r="F95" s="17"/>
+      <c r="G95" s="17">
         <v>556</v>
       </c>
       <c r="H95" s="2">
         <v>113</v>
       </c>
       <c r="I95" s="12"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20">
+      <c r="J95" s="17"/>
+      <c r="K95" s="17">
         <v>475</v>
       </c>
       <c r="L95" s="2">
@@ -4410,209 +4422,209 @@
       <c r="M95" s="12"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
       <c r="D96" s="14" t="s">
         <v>133</v>
       </c>
       <c r="E96" s="16"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="2">
         <v>34</v>
       </c>
       <c r="I96" s="12"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
       <c r="L96" s="2">
         <v>29</v>
       </c>
       <c r="M96" s="12"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
       <c r="D97" s="14" t="s">
         <v>134</v>
       </c>
       <c r="E97" s="16"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="2">
         <v>52</v>
       </c>
       <c r="I97" s="12"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
       <c r="L97" s="2">
         <v>39</v>
       </c>
       <c r="M97" s="12"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
       <c r="D98" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E98" s="16"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="2">
         <v>40</v>
       </c>
       <c r="I98" s="12"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
       <c r="L98" s="2">
         <v>32</v>
       </c>
       <c r="M98" s="12"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
       <c r="D99" s="14" t="s">
         <v>136</v>
       </c>
       <c r="E99" s="16"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="2">
         <v>69</v>
       </c>
       <c r="I99" s="12"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
       <c r="L99" s="2">
         <v>40</v>
       </c>
       <c r="M99" s="12"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
       <c r="D100" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E100" s="16"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="2">
         <v>101</v>
       </c>
       <c r="I100" s="12"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
       <c r="L100" s="2">
         <v>87</v>
       </c>
       <c r="M100" s="12"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
       <c r="D101" s="14" t="s">
         <v>138</v>
       </c>
       <c r="E101" s="16"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="2">
         <v>17</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
       <c r="L101" s="2">
         <v>14</v>
       </c>
       <c r="M101" s="12"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="14" t="s">
         <v>139</v>
       </c>
       <c r="E102" s="16"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
       <c r="H102" s="2">
         <v>26</v>
       </c>
       <c r="I102" s="12"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
       <c r="L102" s="2">
         <v>23</v>
       </c>
       <c r="M102" s="12"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
       <c r="D103" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E103" s="16"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="2">
         <v>122</v>
       </c>
       <c r="I103" s="12"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="20"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
       <c r="L103" s="2">
         <v>115</v>
       </c>
       <c r="M103" s="12"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="19"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="23"/>
       <c r="D104" s="14" t="s">
         <v>141</v>
       </c>
       <c r="E104" s="16"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
       <c r="H104" s="2">
         <v>84</v>
       </c>
       <c r="I104" s="12"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
       <c r="L104" s="2">
         <v>67</v>
       </c>
       <c r="M104" s="12"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="20"/>
+      <c r="F105" s="17"/>
       <c r="G105" s="2">
         <v>103</v>
       </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
-      <c r="J105" s="20"/>
+      <c r="J105" s="17"/>
       <c r="K105" s="2">
         <v>71</v>
       </c>
@@ -4620,20 +4632,20 @@
       <c r="M105" s="12"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
       <c r="C106" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="20"/>
+      <c r="F106" s="17"/>
       <c r="G106" s="2">
         <v>42</v>
       </c>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="20"/>
+      <c r="J106" s="17"/>
       <c r="K106" s="2">
         <v>37</v>
       </c>
@@ -4641,44 +4653,44 @@
       <c r="M106" s="12"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
       <c r="C107" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="20"/>
+      <c r="F107" s="17"/>
       <c r="G107" s="2">
         <v>0.31</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
-      <c r="J107" s="20"/>
+      <c r="J107" s="17"/>
       <c r="K107" s="2"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="17" t="s">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>146</v>
       </c>
       <c r="E108" s="16"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20">
+      <c r="F108" s="17"/>
+      <c r="G108" s="17">
         <v>18</v>
       </c>
       <c r="H108" s="2">
         <v>15</v>
       </c>
       <c r="I108" s="12"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20">
+      <c r="J108" s="17"/>
+      <c r="K108" s="17">
         <v>16</v>
       </c>
       <c r="L108" s="2">
@@ -4687,41 +4699,41 @@
       <c r="M108" s="12"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="19"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="23"/>
       <c r="D109" s="14" t="s">
         <v>147</v>
       </c>
       <c r="E109" s="16"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
       <c r="H109" s="2">
         <v>2.4</v>
       </c>
       <c r="I109" s="12"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
       <c r="L109" s="2">
         <v>1.4</v>
       </c>
       <c r="M109" s="12"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="14" t="s">
         <v>148</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="20"/>
+      <c r="F110" s="17"/>
       <c r="G110" s="2">
         <v>10</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
-      <c r="J110" s="20"/>
+      <c r="J110" s="17"/>
       <c r="K110" s="2">
         <v>3.4</v>
       </c>
@@ -4729,25 +4741,25 @@
       <c r="M110" s="12"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="17" t="s">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="22" t="s">
         <v>149</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>150</v>
       </c>
       <c r="E111" s="16"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20">
+      <c r="F111" s="17"/>
+      <c r="G111" s="17">
         <v>6.6</v>
       </c>
       <c r="H111" s="2">
         <v>3.1</v>
       </c>
       <c r="I111" s="12"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20">
+      <c r="J111" s="17"/>
+      <c r="K111" s="17">
         <v>4.3</v>
       </c>
       <c r="L111" s="2">
@@ -4756,28 +4768,28 @@
       <c r="M111" s="12"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
       <c r="D112" s="14" t="s">
         <v>151</v>
       </c>
       <c r="E112" s="16"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
       <c r="H112" s="2">
         <v>3.5</v>
       </c>
       <c r="I112" s="12"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
       <c r="L112" s="2">
         <v>2.8</v>
       </c>
       <c r="M112" s="12"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A113" s="18"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="14" t="s">
         <v>152</v>
       </c>
@@ -4794,31 +4806,31 @@
       <c r="M113" s="12"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A114" s="18"/>
-      <c r="B114" s="17" t="s">
+      <c r="A114" s="24"/>
+      <c r="B114" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>155</v>
       </c>
       <c r="E114" s="16"/>
-      <c r="F114" s="20">
+      <c r="F114" s="17">
         <v>588</v>
       </c>
-      <c r="G114" s="20">
+      <c r="G114" s="17">
         <v>64</v>
       </c>
       <c r="H114" s="2">
         <v>4.8</v>
       </c>
       <c r="I114" s="12"/>
-      <c r="J114" s="20">
+      <c r="J114" s="17">
         <v>586</v>
       </c>
-      <c r="K114" s="20">
+      <c r="K114" s="17">
         <v>30</v>
       </c>
       <c r="L114" s="2">
@@ -4827,184 +4839,184 @@
       <c r="M114" s="12"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
       <c r="D115" s="14" t="s">
         <v>156</v>
       </c>
       <c r="E115" s="16"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
       <c r="H115" s="2">
         <v>8</v>
       </c>
       <c r="I115" s="12"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
       <c r="L115" s="2"/>
       <c r="M115" s="12"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
       <c r="D116" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E116" s="16"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
       <c r="H116" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="I116" s="12"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
       <c r="L116" s="2"/>
       <c r="M116" s="12"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
       <c r="D117" s="14" t="s">
         <v>158</v>
       </c>
       <c r="E117" s="16"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
       <c r="H117" s="2">
         <v>4.3</v>
       </c>
       <c r="I117" s="12"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
       <c r="L117" s="2">
         <v>4.3</v>
       </c>
       <c r="M117" s="12"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
       <c r="D118" s="14" t="s">
         <v>159</v>
       </c>
       <c r="E118" s="16"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
       <c r="H118" s="2">
         <v>2.8</v>
       </c>
       <c r="I118" s="12"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
       <c r="L118" s="2">
         <v>1.5</v>
       </c>
       <c r="M118" s="12"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="14" t="s">
         <v>160</v>
       </c>
       <c r="E119" s="16"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
       <c r="H119" s="2">
         <v>0.46</v>
       </c>
       <c r="I119" s="12"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="20"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
       <c r="L119" s="2">
         <v>0.31</v>
       </c>
       <c r="M119" s="12"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
       <c r="D120" s="14" t="s">
         <v>161</v>
       </c>
       <c r="E120" s="16"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
       <c r="H120" s="2">
         <v>0.43</v>
       </c>
       <c r="I120" s="12"/>
-      <c r="J120" s="20"/>
-      <c r="K120" s="20"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
       <c r="L120" s="2">
         <v>0.43</v>
       </c>
       <c r="M120" s="12"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="14" t="s">
         <v>162</v>
       </c>
       <c r="E121" s="16"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
       <c r="H121" s="2">
         <v>0.83</v>
       </c>
       <c r="I121" s="12"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
       <c r="L121" s="2">
         <v>0.83</v>
       </c>
       <c r="M121" s="12"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="19"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="23"/>
       <c r="D122" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E122" s="16"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
       <c r="H122" s="2">
         <v>0.22</v>
       </c>
       <c r="I122" s="12"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
       <c r="L122" s="2">
         <v>0.22</v>
       </c>
       <c r="M122" s="12"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="14" t="s">
         <v>164</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="16"/>
-      <c r="F123" s="20"/>
+      <c r="F123" s="17"/>
       <c r="G123" s="2">
         <v>11</v>
       </c>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
-      <c r="J123" s="20"/>
+      <c r="J123" s="17"/>
       <c r="K123" s="2">
         <v>9.9</v>
       </c>
@@ -5012,25 +5024,25 @@
       <c r="M123" s="12"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A124" s="18"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="17" t="s">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="22" t="s">
         <v>165</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>166</v>
       </c>
       <c r="E124" s="16"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20">
+      <c r="F124" s="17"/>
+      <c r="G124" s="17">
         <v>207</v>
       </c>
       <c r="H124" s="2">
         <v>4.2</v>
       </c>
       <c r="I124" s="12"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20">
+      <c r="J124" s="17"/>
+      <c r="K124" s="17">
         <v>258</v>
       </c>
       <c r="L124" s="2">
@@ -5039,100 +5051,100 @@
       <c r="M124" s="12"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
       <c r="D125" s="14" t="s">
         <v>167</v>
       </c>
       <c r="E125" s="16"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
       <c r="H125" s="2">
         <v>67</v>
       </c>
       <c r="I125" s="12"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
       <c r="L125" s="2"/>
       <c r="M125" s="12"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
       <c r="D126" s="14" t="s">
         <v>168</v>
       </c>
       <c r="E126" s="16"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
       <c r="H126" s="2">
         <v>7.3</v>
       </c>
       <c r="I126" s="12"/>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
       <c r="L126" s="2"/>
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
       <c r="D127" s="14" t="s">
         <v>169</v>
       </c>
       <c r="E127" s="16"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
       <c r="H127" s="2">
         <v>73</v>
       </c>
       <c r="I127" s="12"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
       <c r="L127" s="2">
         <v>74</v>
       </c>
       <c r="M127" s="12"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A128" s="18"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="19"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="23"/>
       <c r="D128" s="14" t="s">
         <v>170</v>
       </c>
       <c r="E128" s="16"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
       <c r="H128" s="2">
         <v>123</v>
       </c>
       <c r="I128" s="12"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
       <c r="L128" s="2">
         <v>177</v>
       </c>
       <c r="M128" s="12"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A129" s="18"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="14" t="s">
         <v>171</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="20"/>
+      <c r="F129" s="17"/>
       <c r="G129" s="2">
         <v>10</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
-      <c r="J129" s="20"/>
+      <c r="J129" s="17"/>
       <c r="K129" s="2">
         <v>4.3</v>
       </c>
@@ -5140,20 +5152,20 @@
       <c r="M129" s="12"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="14" t="s">
         <v>172</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="20"/>
+      <c r="F130" s="17"/>
       <c r="G130" s="2">
         <v>2.4</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="20"/>
+      <c r="J130" s="17"/>
       <c r="K130" s="2">
         <v>1.9</v>
       </c>
@@ -5161,20 +5173,20 @@
       <c r="M130" s="12"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A131" s="18"/>
-      <c r="B131" s="19"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="14" t="s">
         <v>173</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="20"/>
+      <c r="F131" s="17"/>
       <c r="G131" s="2">
         <v>0.82</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="20"/>
+      <c r="J131" s="17"/>
       <c r="K131" s="2">
         <v>0.42</v>
       </c>
@@ -5182,8 +5194,8 @@
       <c r="M131" s="12"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A132" s="18"/>
-      <c r="B132" s="17" t="s">
+      <c r="A132" s="24"/>
+      <c r="B132" s="22" t="s">
         <v>174</v>
       </c>
       <c r="C132" s="14" t="s">
@@ -5191,7 +5203,7 @@
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="20">
+      <c r="F132" s="17">
         <v>118348</v>
       </c>
       <c r="G132" s="2">
@@ -5199,7 +5211,7 @@
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
-      <c r="J132" s="20">
+      <c r="J132" s="17">
         <v>115297</v>
       </c>
       <c r="K132" s="2">
@@ -5209,37 +5221,37 @@
       <c r="M132" s="12"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A133" s="18"/>
-      <c r="B133" s="18"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="14" t="s">
         <v>176</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="20"/>
+      <c r="F133" s="17"/>
       <c r="G133" s="2"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
-      <c r="J133" s="20"/>
+      <c r="J133" s="17"/>
       <c r="K133" s="2"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="20"/>
+      <c r="F134" s="17"/>
       <c r="G134" s="2">
         <v>837</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
-      <c r="J134" s="20"/>
+      <c r="J134" s="17"/>
       <c r="K134" s="2">
         <v>839</v>
       </c>
@@ -5247,31 +5259,31 @@
       <c r="M134" s="12"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A135" s="18"/>
-      <c r="B135" s="17" t="s">
+      <c r="A135" s="24"/>
+      <c r="B135" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>180</v>
       </c>
       <c r="E135" s="16"/>
-      <c r="F135" s="20">
+      <c r="F135" s="17">
         <v>30815</v>
       </c>
-      <c r="G135" s="20">
+      <c r="G135" s="17">
         <v>30030</v>
       </c>
       <c r="H135" s="2">
         <v>28256</v>
       </c>
       <c r="I135" s="12"/>
-      <c r="J135" s="20">
+      <c r="J135" s="17">
         <v>29808</v>
       </c>
-      <c r="K135" s="20">
+      <c r="K135" s="17">
         <v>29036</v>
       </c>
       <c r="L135" s="2">
@@ -5280,154 +5292,154 @@
       <c r="M135" s="12"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
       <c r="D136" s="14" t="s">
         <v>181</v>
       </c>
       <c r="E136" s="16"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
       <c r="H136" s="2">
         <v>1569</v>
       </c>
       <c r="I136" s="12"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
       <c r="L136" s="2">
         <v>1569</v>
       </c>
       <c r="M136" s="12"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="17" t="s">
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="22" t="s">
         <v>182</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A138" s="18"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
       <c r="E138" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A139" s="18"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
       <c r="E139" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="19"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
       <c r="D141" s="14" t="s">
         <v>187</v>
       </c>
       <c r="E141" s="16"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
       <c r="H141" s="2">
         <v>94</v>
       </c>
       <c r="I141" s="12"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
       <c r="L141" s="2">
         <v>94</v>
       </c>
       <c r="M141" s="12"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="19"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="23"/>
       <c r="D142" s="14" t="s">
         <v>188</v>
       </c>
       <c r="E142" s="16"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
       <c r="H142" s="2"/>
       <c r="I142" s="12"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
       <c r="L142" s="2"/>
       <c r="M142" s="12"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A143" s="18"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="17" t="s">
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="22" t="s">
         <v>189</v>
       </c>
       <c r="D143" s="14" t="s">
         <v>190</v>
       </c>
       <c r="E143" s="16"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20">
+      <c r="F143" s="17"/>
+      <c r="G143" s="17">
         <v>6.7</v>
       </c>
       <c r="H143" s="2">
         <v>3.6</v>
       </c>
       <c r="I143" s="12"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20">
+      <c r="J143" s="17"/>
+      <c r="K143" s="17">
         <v>5.0999999999999996</v>
       </c>
       <c r="L143" s="2">
@@ -5436,41 +5448,41 @@
       <c r="M143" s="12"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A144" s="18"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="19"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="23"/>
       <c r="D144" s="14" t="s">
         <v>191</v>
       </c>
       <c r="E144" s="16"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
       <c r="H144" s="2">
         <v>3.1</v>
       </c>
       <c r="I144" s="12"/>
-      <c r="J144" s="20"/>
-      <c r="K144" s="20"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
       <c r="L144" s="2">
         <v>2.9</v>
       </c>
       <c r="M144" s="12"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A145" s="18"/>
-      <c r="B145" s="18"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="20"/>
+      <c r="F145" s="17"/>
       <c r="G145" s="2">
         <v>5.6</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
-      <c r="J145" s="20"/>
+      <c r="J145" s="17"/>
       <c r="K145" s="2">
         <v>0.5</v>
       </c>
@@ -5478,25 +5490,25 @@
       <c r="M145" s="12"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A146" s="18"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="17" t="s">
+      <c r="A146" s="24"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="22" t="s">
         <v>193</v>
       </c>
       <c r="D146" s="14" t="s">
         <v>194</v>
       </c>
       <c r="E146" s="16"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20">
+      <c r="F146" s="17"/>
+      <c r="G146" s="17">
         <v>59</v>
       </c>
       <c r="H146" s="2">
         <v>6.1</v>
       </c>
       <c r="I146" s="12"/>
-      <c r="J146" s="20"/>
-      <c r="K146" s="20">
+      <c r="J146" s="17"/>
+      <c r="K146" s="17">
         <v>52</v>
       </c>
       <c r="L146" s="2">
@@ -5505,262 +5517,262 @@
       <c r="M146" s="12"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
       <c r="D147" s="14" t="s">
         <v>195</v>
       </c>
       <c r="E147" s="16"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
       <c r="H147" s="2">
         <v>9</v>
       </c>
       <c r="I147" s="12"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
       <c r="L147" s="2"/>
       <c r="M147" s="12"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
       <c r="D148" s="14" t="s">
         <v>196</v>
       </c>
       <c r="E148" s="16"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
       <c r="H148" s="2">
         <v>2.7</v>
       </c>
       <c r="I148" s="12"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
       <c r="L148" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="M148" s="12"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="19"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="23"/>
       <c r="D149" s="14" t="s">
         <v>197</v>
       </c>
       <c r="E149" s="16"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
       <c r="H149" s="2">
         <v>41</v>
       </c>
       <c r="I149" s="12"/>
-      <c r="J149" s="20"/>
-      <c r="K149" s="20"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
       <c r="L149" s="2">
         <v>46</v>
       </c>
       <c r="M149" s="12"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="17" t="s">
+      <c r="A150" s="24"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="22" t="s">
         <v>198</v>
       </c>
       <c r="D150" s="14" t="s">
         <v>199</v>
       </c>
       <c r="E150" s="16"/>
-      <c r="F150" s="20"/>
+      <c r="F150" s="17"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="12"/>
-      <c r="J150" s="20"/>
+      <c r="J150" s="17"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="12"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="19"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="23"/>
       <c r="D151" s="14" t="s">
         <v>200</v>
       </c>
       <c r="E151" s="16"/>
-      <c r="F151" s="20"/>
+      <c r="F151" s="17"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="12"/>
-      <c r="J151" s="20"/>
+      <c r="J151" s="17"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="12"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="17" t="s">
+      <c r="A152" s="24"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="22" t="s">
         <v>201</v>
       </c>
       <c r="D152" s="14" t="s">
         <v>202</v>
       </c>
       <c r="E152" s="16"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20">
+      <c r="F152" s="17"/>
+      <c r="G152" s="17">
         <v>94</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="12"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20">
+      <c r="J152" s="17"/>
+      <c r="K152" s="17">
         <v>88</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="12"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="17" t="s">
+      <c r="A153" s="24"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="22" t="s">
         <v>203</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20">
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17">
         <v>16</v>
       </c>
       <c r="I153" s="2"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20">
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17">
         <v>14</v>
       </c>
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
       <c r="E154" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
       <c r="I154" s="2"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="19"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="23"/>
       <c r="E155" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
       <c r="I155" s="2"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
       <c r="M155" s="2"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="19"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="23"/>
       <c r="D156" s="14" t="s">
         <v>207</v>
       </c>
       <c r="E156" s="16"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
       <c r="H156" s="2">
         <v>12</v>
       </c>
       <c r="I156" s="12"/>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
       <c r="L156" s="2">
         <v>8.8000000000000007</v>
       </c>
       <c r="M156" s="12"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="17" t="s">
+      <c r="A157" s="24"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="22" t="s">
         <v>208</v>
       </c>
       <c r="D157" s="14" t="s">
         <v>209</v>
       </c>
       <c r="E157" s="16"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20">
+      <c r="F157" s="17"/>
+      <c r="G157" s="17">
         <v>458</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="12"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20">
+      <c r="J157" s="17"/>
+      <c r="K157" s="17">
         <v>446</v>
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="12"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="19"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="23"/>
       <c r="D158" s="14" t="s">
         <v>210</v>
       </c>
       <c r="E158" s="16"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
       <c r="H158" s="2">
         <v>35</v>
       </c>
       <c r="I158" s="12"/>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
       <c r="L158" s="2">
         <v>23</v>
       </c>
       <c r="M158" s="12"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
       <c r="C159" s="14" t="s">
         <v>211</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="16"/>
-      <c r="F159" s="20"/>
+      <c r="F159" s="17"/>
       <c r="G159" s="2">
         <v>29</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
-      <c r="J159" s="20"/>
+      <c r="J159" s="17"/>
       <c r="K159" s="2">
         <v>39</v>
       </c>
@@ -5768,20 +5780,20 @@
       <c r="M159" s="12"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
       <c r="C160" s="14" t="s">
         <v>212</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="16"/>
-      <c r="F160" s="20"/>
+      <c r="F160" s="17"/>
       <c r="G160" s="2">
         <v>29</v>
       </c>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
-      <c r="J160" s="20"/>
+      <c r="J160" s="17"/>
       <c r="K160" s="2">
         <v>29</v>
       </c>
@@ -5789,20 +5801,20 @@
       <c r="M160" s="12"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A161" s="19"/>
-      <c r="B161" s="19"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="23"/>
       <c r="C161" s="14" t="s">
         <v>213</v>
       </c>
       <c r="D161" s="15"/>
       <c r="E161" s="16"/>
-      <c r="F161" s="20"/>
+      <c r="F161" s="17"/>
       <c r="G161" s="2">
         <v>109</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
-      <c r="J161" s="20"/>
+      <c r="J161" s="17"/>
       <c r="K161" s="2">
         <v>119</v>
       </c>
@@ -5810,33 +5822,33 @@
       <c r="M161" s="12"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="22" t="s">
         <v>215</v>
       </c>
       <c r="D162" s="14" t="s">
         <v>216</v>
       </c>
       <c r="E162" s="16"/>
-      <c r="F162" s="20">
+      <c r="F162" s="17">
         <v>1040</v>
       </c>
-      <c r="G162" s="20">
+      <c r="G162" s="17">
         <v>87</v>
       </c>
       <c r="H162" s="2">
         <v>55</v>
       </c>
       <c r="I162" s="12"/>
-      <c r="J162" s="20">
+      <c r="J162" s="17">
         <v>956</v>
       </c>
-      <c r="K162" s="20">
+      <c r="K162" s="17">
         <v>41</v>
       </c>
       <c r="L162" s="2">
@@ -5845,67 +5857,67 @@
       <c r="M162" s="12"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="24"/>
       <c r="D163" s="14" t="s">
         <v>217</v>
       </c>
       <c r="E163" s="16"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
       <c r="H163" s="2">
         <v>15</v>
       </c>
       <c r="I163" s="12"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
       <c r="L163" s="2">
         <v>16</v>
       </c>
       <c r="M163" s="12"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="19"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="23"/>
       <c r="D164" s="14" t="s">
         <v>218</v>
       </c>
       <c r="E164" s="16"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
       <c r="H164" s="2">
         <v>17</v>
       </c>
       <c r="I164" s="12"/>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="17"/>
       <c r="L164" s="2">
         <v>15</v>
       </c>
       <c r="M164" s="12"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="17" t="s">
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="22" t="s">
         <v>219</v>
       </c>
       <c r="D165" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E165" s="16"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20">
+      <c r="F165" s="17"/>
+      <c r="G165" s="17">
         <v>386</v>
       </c>
       <c r="H165" s="2">
         <v>180</v>
       </c>
       <c r="I165" s="12"/>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20">
+      <c r="J165" s="17"/>
+      <c r="K165" s="17">
         <v>314</v>
       </c>
       <c r="L165" s="2">
@@ -5914,74 +5926,74 @@
       <c r="M165" s="12"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="18"/>
+      <c r="A166" s="24"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="24"/>
       <c r="D166" s="14" t="s">
         <v>221</v>
       </c>
       <c r="E166" s="16"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
       <c r="H166" s="2">
         <v>179</v>
       </c>
       <c r="I166" s="12"/>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
       <c r="L166" s="2">
         <v>151</v>
       </c>
       <c r="M166" s="12"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A167" s="18"/>
-      <c r="B167" s="18"/>
-      <c r="C167" s="19"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="23"/>
       <c r="D167" s="14" t="s">
         <v>222</v>
       </c>
       <c r="E167" s="16"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
       <c r="H167" s="2">
         <v>26</v>
       </c>
       <c r="I167" s="12"/>
-      <c r="J167" s="20"/>
-      <c r="K167" s="20"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
       <c r="L167" s="2">
         <v>22</v>
       </c>
       <c r="M167" s="12"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A168" s="18"/>
-      <c r="B168" s="18"/>
-      <c r="C168" s="17" t="s">
+      <c r="A168" s="24"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D168" s="17" t="s">
+      <c r="D168" s="22" t="s">
         <v>224</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20">
+      <c r="F168" s="17"/>
+      <c r="G168" s="17">
         <v>159</v>
       </c>
-      <c r="H168" s="20">
+      <c r="H168" s="17">
         <v>108</v>
       </c>
       <c r="I168" s="2">
         <v>40</v>
       </c>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20">
+      <c r="J168" s="17"/>
+      <c r="K168" s="17">
         <v>153</v>
       </c>
-      <c r="L168" s="20">
+      <c r="L168" s="17">
         <v>117</v>
       </c>
       <c r="M168" s="2">
@@ -5989,81 +6001,81 @@
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A169" s="18"/>
-      <c r="B169" s="18"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="19"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="23"/>
       <c r="E169" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
       <c r="I169" s="2">
         <v>60</v>
       </c>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
       <c r="M169" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
-      <c r="C170" s="18"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="24"/>
       <c r="D170" s="14" t="s">
         <v>227</v>
       </c>
       <c r="E170" s="16"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
       <c r="H170" s="2">
         <v>13</v>
       </c>
       <c r="I170" s="12"/>
-      <c r="J170" s="20"/>
-      <c r="K170" s="20"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
       <c r="L170" s="2"/>
       <c r="M170" s="12"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="19"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="23"/>
       <c r="D171" s="14" t="s">
         <v>228</v>
       </c>
       <c r="E171" s="16"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
       <c r="H171" s="2">
         <v>39</v>
       </c>
       <c r="I171" s="12"/>
-      <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
       <c r="L171" s="2">
         <v>37</v>
       </c>
       <c r="M171" s="12"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A172" s="18"/>
-      <c r="B172" s="19"/>
+      <c r="A172" s="24"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="14" t="s">
         <v>229</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="20"/>
+      <c r="F172" s="17"/>
       <c r="G172" s="2">
         <v>572</v>
       </c>
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
-      <c r="J172" s="20"/>
+      <c r="J172" s="17"/>
       <c r="K172" s="2">
         <v>572</v>
       </c>
@@ -6071,38 +6083,38 @@
       <c r="M172" s="12"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A173" s="18"/>
-      <c r="B173" s="17" t="s">
+      <c r="A173" s="24"/>
+      <c r="B173" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D173" s="17" t="s">
+      <c r="D173" s="22" t="s">
         <v>232</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F173" s="20">
+      <c r="F173" s="17">
         <v>1406</v>
       </c>
-      <c r="G173" s="20">
+      <c r="G173" s="17">
         <v>1364</v>
       </c>
-      <c r="H173" s="20">
+      <c r="H173" s="17">
         <v>1198</v>
       </c>
       <c r="I173" s="2">
         <v>1076</v>
       </c>
-      <c r="J173" s="20">
+      <c r="J173" s="17">
         <v>1497</v>
       </c>
-      <c r="K173" s="20">
+      <c r="K173" s="17">
         <v>1458</v>
       </c>
-      <c r="L173" s="20">
+      <c r="L173" s="17">
         <v>1281</v>
       </c>
       <c r="M173" s="2">
@@ -6110,109 +6122,109 @@
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A174" s="18"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
+      <c r="A174" s="24"/>
+      <c r="B174" s="24"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
       <c r="E174" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
       <c r="I174" s="2">
         <v>14</v>
       </c>
-      <c r="J174" s="20"/>
-      <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
       <c r="M174" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
       <c r="E175" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
       <c r="I175" s="2">
         <v>5.5</v>
       </c>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
       <c r="M175" s="2">
         <v>1.9</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="19"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="23"/>
       <c r="E176" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
       <c r="I176" s="2">
         <v>103</v>
       </c>
-      <c r="J176" s="20"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="20"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
       <c r="M176" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="19"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="23"/>
       <c r="D177" s="14" t="s">
         <v>237</v>
       </c>
       <c r="E177" s="16"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
       <c r="H177" s="2">
         <v>166</v>
       </c>
       <c r="I177" s="12"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
       <c r="L177" s="2">
         <v>177</v>
       </c>
       <c r="M177" s="12"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="17" t="s">
+      <c r="A178" s="24"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="22" t="s">
         <v>238</v>
       </c>
       <c r="D178" s="14" t="s">
         <v>239</v>
       </c>
       <c r="E178" s="16"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20">
+      <c r="F178" s="17"/>
+      <c r="G178" s="17">
         <v>11</v>
       </c>
       <c r="H178" s="2">
         <v>9</v>
       </c>
       <c r="I178" s="12"/>
-      <c r="J178" s="20"/>
-      <c r="K178" s="20">
+      <c r="J178" s="17"/>
+      <c r="K178" s="17">
         <v>8.5</v>
       </c>
       <c r="L178" s="2">
@@ -6221,46 +6233,46 @@
       <c r="M178" s="12"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A179" s="18"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="19"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="23"/>
       <c r="D179" s="14" t="s">
         <v>240</v>
       </c>
       <c r="E179" s="16"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
       <c r="H179" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="I179" s="12"/>
-      <c r="J179" s="20"/>
-      <c r="K179" s="20"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
       <c r="L179" s="2">
         <v>1.5</v>
       </c>
       <c r="M179" s="12"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A180" s="18"/>
-      <c r="B180" s="18"/>
-      <c r="C180" s="17" t="s">
+      <c r="A180" s="24"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="22" t="s">
         <v>241</v>
       </c>
       <c r="D180" s="14" t="s">
         <v>242</v>
       </c>
       <c r="E180" s="16"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20">
+      <c r="F180" s="17"/>
+      <c r="G180" s="17">
         <v>31</v>
       </c>
       <c r="H180" s="2">
         <v>20</v>
       </c>
       <c r="I180" s="12"/>
-      <c r="J180" s="20"/>
-      <c r="K180" s="20">
+      <c r="J180" s="17"/>
+      <c r="K180" s="17">
         <v>30</v>
       </c>
       <c r="L180" s="2">
@@ -6269,50 +6281,50 @@
       <c r="M180" s="12"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
+      <c r="A181" s="24"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
       <c r="D181" s="14" t="s">
         <v>243</v>
       </c>
       <c r="E181" s="16"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
       <c r="H181" s="2">
         <v>6.4</v>
       </c>
       <c r="I181" s="12"/>
-      <c r="J181" s="20"/>
-      <c r="K181" s="20"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
       <c r="L181" s="2">
         <v>6.2</v>
       </c>
       <c r="M181" s="12"/>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A182" s="18"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="23"/>
       <c r="D182" s="14" t="s">
         <v>244</v>
       </c>
       <c r="E182" s="16"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
       <c r="H182" s="2">
         <v>2.9</v>
       </c>
       <c r="I182" s="12"/>
-      <c r="J182" s="20"/>
-      <c r="K182" s="20"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
       <c r="L182" s="2">
         <v>2.9</v>
       </c>
       <c r="M182" s="12"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A183" s="18"/>
-      <c r="B183" s="17" t="s">
+      <c r="A183" s="24"/>
+      <c r="B183" s="22" t="s">
         <v>245</v>
       </c>
       <c r="C183" s="14" t="s">
@@ -6320,7 +6332,7 @@
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="16"/>
-      <c r="F183" s="20">
+      <c r="F183" s="17">
         <v>366</v>
       </c>
       <c r="G183" s="2">
@@ -6328,7 +6340,7 @@
       </c>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
-      <c r="J183" s="20">
+      <c r="J183" s="17">
         <v>206</v>
       </c>
       <c r="K183" s="2">
@@ -6338,20 +6350,20 @@
       <c r="M183" s="12"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A184" s="18"/>
-      <c r="B184" s="18"/>
+      <c r="A184" s="24"/>
+      <c r="B184" s="24"/>
       <c r="C184" s="14" t="s">
         <v>247</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="16"/>
-      <c r="F184" s="20"/>
+      <c r="F184" s="17"/>
       <c r="G184" s="2">
         <v>8</v>
       </c>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
-      <c r="J184" s="20"/>
+      <c r="J184" s="17"/>
       <c r="K184" s="2">
         <v>6.1</v>
       </c>
@@ -6359,20 +6371,20 @@
       <c r="M184" s="12"/>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A185" s="18"/>
-      <c r="B185" s="18"/>
+      <c r="A185" s="24"/>
+      <c r="B185" s="24"/>
       <c r="C185" s="14" t="s">
         <v>248</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="16"/>
-      <c r="F185" s="20"/>
+      <c r="F185" s="17"/>
       <c r="G185" s="2">
         <v>46</v>
       </c>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
-      <c r="J185" s="20"/>
+      <c r="J185" s="17"/>
       <c r="K185" s="2">
         <v>45</v>
       </c>
@@ -6380,20 +6392,20 @@
       <c r="M185" s="12"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="24"/>
       <c r="C186" s="14" t="s">
         <v>249</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="16"/>
-      <c r="F186" s="20"/>
+      <c r="F186" s="17"/>
       <c r="G186" s="2">
         <v>17</v>
       </c>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
-      <c r="J186" s="20"/>
+      <c r="J186" s="17"/>
       <c r="K186" s="2">
         <v>16</v>
       </c>
@@ -6401,20 +6413,20 @@
       <c r="M186" s="12"/>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A187" s="18"/>
-      <c r="B187" s="19"/>
+      <c r="A187" s="24"/>
+      <c r="B187" s="23"/>
       <c r="C187" s="14" t="s">
         <v>250</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="16"/>
-      <c r="F187" s="20"/>
+      <c r="F187" s="17"/>
       <c r="G187" s="2">
         <v>10</v>
       </c>
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
-      <c r="J187" s="20"/>
+      <c r="J187" s="17"/>
       <c r="K187" s="2">
         <v>10</v>
       </c>
@@ -6422,8 +6434,8 @@
       <c r="M187" s="12"/>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A188" s="18"/>
-      <c r="B188" s="17" t="s">
+      <c r="A188" s="24"/>
+      <c r="B188" s="22" t="s">
         <v>251</v>
       </c>
       <c r="C188" s="14" t="s">
@@ -6431,7 +6443,7 @@
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="16"/>
-      <c r="F188" s="20">
+      <c r="F188" s="17">
         <v>4.4000000000000004</v>
       </c>
       <c r="G188" s="2">
@@ -6439,7 +6451,7 @@
       </c>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
-      <c r="J188" s="20">
+      <c r="J188" s="17">
         <v>3.9</v>
       </c>
       <c r="K188" s="2">
@@ -6449,20 +6461,20 @@
       <c r="M188" s="12"/>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A189" s="18"/>
-      <c r="B189" s="19"/>
+      <c r="A189" s="24"/>
+      <c r="B189" s="23"/>
       <c r="C189" s="14" t="s">
         <v>253</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="16"/>
-      <c r="F189" s="20"/>
+      <c r="F189" s="17"/>
       <c r="G189" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
-      <c r="J189" s="20"/>
+      <c r="J189" s="17"/>
       <c r="K189" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -6470,31 +6482,31 @@
       <c r="M189" s="12"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A190" s="18"/>
-      <c r="B190" s="17" t="s">
+      <c r="A190" s="24"/>
+      <c r="B190" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="22" t="s">
         <v>255</v>
       </c>
       <c r="D190" s="14" t="s">
         <v>256</v>
       </c>
       <c r="E190" s="16"/>
-      <c r="F190" s="20">
+      <c r="F190" s="17">
         <v>22</v>
       </c>
-      <c r="G190" s="20">
+      <c r="G190" s="17">
         <v>9.6999999999999993</v>
       </c>
       <c r="H190" s="2">
         <v>5.8</v>
       </c>
       <c r="I190" s="12"/>
-      <c r="J190" s="20">
+      <c r="J190" s="17">
         <v>15</v>
       </c>
-      <c r="K190" s="20">
+      <c r="K190" s="17">
         <v>7.2</v>
       </c>
       <c r="L190" s="2">
@@ -6503,98 +6515,98 @@
       <c r="M190" s="12"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A191" s="18"/>
-      <c r="B191" s="18"/>
-      <c r="C191" s="18"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
       <c r="D191" s="14" t="s">
         <v>257</v>
       </c>
       <c r="E191" s="16"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
       <c r="H191" s="2">
         <v>2.1</v>
       </c>
       <c r="I191" s="12"/>
-      <c r="J191" s="20"/>
-      <c r="K191" s="20"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
       <c r="L191" s="2"/>
       <c r="M191" s="12"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A192" s="18"/>
-      <c r="B192" s="18"/>
-      <c r="C192" s="18"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
       <c r="D192" s="14" t="s">
         <v>258</v>
       </c>
       <c r="E192" s="16"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="17"/>
       <c r="H192" s="2">
         <v>0.49</v>
       </c>
       <c r="I192" s="12"/>
-      <c r="J192" s="20"/>
-      <c r="K192" s="20"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
       <c r="L192" s="2"/>
       <c r="M192" s="12"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A193" s="18"/>
-      <c r="B193" s="18"/>
-      <c r="C193" s="18"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
       <c r="D193" s="14" t="s">
         <v>259</v>
       </c>
       <c r="E193" s="16"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
       <c r="H193" s="2">
         <v>1</v>
       </c>
       <c r="I193" s="12"/>
-      <c r="J193" s="20"/>
-      <c r="K193" s="20"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
       <c r="L193" s="2">
         <v>0.87</v>
       </c>
       <c r="M193" s="12"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="19"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="23"/>
       <c r="D194" s="14" t="s">
         <v>260</v>
       </c>
       <c r="E194" s="16"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="17"/>
       <c r="H194" s="2">
         <v>0.24</v>
       </c>
       <c r="I194" s="12"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="20"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
       <c r="L194" s="2"/>
       <c r="M194" s="12"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="14" t="s">
         <v>261</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
-      <c r="F195" s="20"/>
+      <c r="F195" s="17"/>
       <c r="G195" s="2">
         <v>4.2</v>
       </c>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
-      <c r="J195" s="20"/>
+      <c r="J195" s="17"/>
       <c r="K195" s="2">
         <v>2.9</v>
       </c>
@@ -6602,20 +6614,20 @@
       <c r="M195" s="12"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A196" s="18"/>
-      <c r="B196" s="19"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="23"/>
       <c r="C196" s="14" t="s">
         <v>262</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
-      <c r="F196" s="20"/>
+      <c r="F196" s="17"/>
       <c r="G196" s="2">
         <v>8.1</v>
       </c>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
-      <c r="J196" s="20"/>
+      <c r="J196" s="17"/>
       <c r="K196" s="2">
         <v>5.3</v>
       </c>
@@ -6623,8 +6635,8 @@
       <c r="M196" s="12"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A197" s="18"/>
-      <c r="B197" s="17" t="s">
+      <c r="A197" s="24"/>
+      <c r="B197" s="22" t="s">
         <v>263</v>
       </c>
       <c r="C197" s="14" t="s">
@@ -6632,7 +6644,7 @@
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="16"/>
-      <c r="F197" s="20">
+      <c r="F197" s="17">
         <v>144</v>
       </c>
       <c r="G197" s="2">
@@ -6640,7 +6652,7 @@
       </c>
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
-      <c r="J197" s="20">
+      <c r="J197" s="17">
         <v>127</v>
       </c>
       <c r="K197" s="2">
@@ -6650,20 +6662,20 @@
       <c r="M197" s="12"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A198" s="18"/>
-      <c r="B198" s="18"/>
+      <c r="A198" s="24"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="14" t="s">
         <v>265</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="16"/>
-      <c r="F198" s="20"/>
+      <c r="F198" s="17"/>
       <c r="G198" s="2">
         <v>6.2</v>
       </c>
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
-      <c r="J198" s="20"/>
+      <c r="J198" s="17"/>
       <c r="K198" s="2">
         <v>2.6</v>
       </c>
@@ -6671,25 +6683,25 @@
       <c r="M198" s="12"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A199" s="18"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="17" t="s">
+      <c r="A199" s="24"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="22" t="s">
         <v>266</v>
       </c>
       <c r="D199" s="14" t="s">
         <v>267</v>
       </c>
       <c r="E199" s="16"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="20">
+      <c r="F199" s="17"/>
+      <c r="G199" s="17">
         <v>110</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>268</v>
       </c>
       <c r="I199" s="12"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20">
+      <c r="J199" s="17"/>
+      <c r="K199" s="17">
         <v>101</v>
       </c>
       <c r="L199" s="2" t="s">
@@ -6698,46 +6710,46 @@
       <c r="M199" s="12"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A200" s="18"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="19"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="23"/>
       <c r="D200" s="14" t="s">
         <v>270</v>
       </c>
       <c r="E200" s="16"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="20"/>
+      <c r="F200" s="17"/>
+      <c r="G200" s="17"/>
       <c r="H200" s="2" t="s">
         <v>268</v>
       </c>
       <c r="I200" s="12"/>
-      <c r="J200" s="20"/>
-      <c r="K200" s="20"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
       <c r="L200" s="2" t="s">
         <v>269</v>
       </c>
       <c r="M200" s="12"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A201" s="18"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="17" t="s">
+      <c r="A201" s="24"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="22" t="s">
         <v>271</v>
       </c>
       <c r="D201" s="14" t="s">
         <v>272</v>
       </c>
       <c r="E201" s="16"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="20">
+      <c r="F201" s="17"/>
+      <c r="G201" s="17">
         <v>14</v>
       </c>
       <c r="H201" s="2">
         <v>0.09</v>
       </c>
       <c r="I201" s="12"/>
-      <c r="J201" s="20"/>
-      <c r="K201" s="20">
+      <c r="J201" s="17"/>
+      <c r="K201" s="17">
         <v>11</v>
       </c>
       <c r="L201" s="2">
@@ -6746,49 +6758,49 @@
       <c r="M201" s="12"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A202" s="18"/>
-      <c r="B202" s="18"/>
-      <c r="C202" s="18"/>
+      <c r="A202" s="24"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
       <c r="D202" s="14" t="s">
         <v>273</v>
       </c>
       <c r="E202" s="16"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="20"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
       <c r="H202" s="2">
         <v>9.1999999999999993</v>
       </c>
       <c r="I202" s="12"/>
-      <c r="J202" s="20"/>
-      <c r="K202" s="20"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
       <c r="L202" s="2">
         <v>6.9</v>
       </c>
       <c r="M202" s="12"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A203" s="18"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="19"/>
+      <c r="A203" s="24"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
       <c r="D203" s="14" t="s">
         <v>274</v>
       </c>
       <c r="E203" s="16"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
       <c r="H203" s="2">
         <v>4.3</v>
       </c>
       <c r="I203" s="12"/>
-      <c r="J203" s="20"/>
-      <c r="K203" s="20"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
       <c r="L203" s="2">
         <v>4.3</v>
       </c>
       <c r="M203" s="12"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A204" s="18"/>
+      <c r="A204" s="24"/>
       <c r="B204" s="14" t="s">
         <v>398</v>
       </c>
@@ -6809,7 +6821,7 @@
       <c r="M204" s="12"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A205" s="18"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="14" t="s">
         <v>399</v>
       </c>
@@ -6830,7 +6842,7 @@
       <c r="M205" s="12"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A206" s="18"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="14" t="s">
         <v>275</v>
       </c>
@@ -6851,7 +6863,7 @@
       <c r="M206" s="12"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A207" s="19"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="14" t="s">
         <v>276</v>
       </c>
@@ -6872,33 +6884,33 @@
       <c r="M207" s="12"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="22" t="s">
         <v>277</v>
       </c>
       <c r="D208" s="14" t="s">
         <v>278</v>
       </c>
       <c r="E208" s="16"/>
-      <c r="F208" s="20">
+      <c r="F208" s="17">
         <v>3786</v>
       </c>
-      <c r="G208" s="20">
+      <c r="G208" s="17">
         <v>1397</v>
       </c>
       <c r="H208" s="2">
         <v>1142</v>
       </c>
       <c r="I208" s="12"/>
-      <c r="J208" s="20">
+      <c r="J208" s="17">
         <v>3376</v>
       </c>
-      <c r="K208" s="20">
+      <c r="K208" s="17">
         <v>975</v>
       </c>
       <c r="L208" s="2">
@@ -6907,219 +6919,219 @@
       <c r="M208" s="12"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A209" s="18"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
+      <c r="A209" s="24"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="24"/>
       <c r="D209" s="14" t="s">
         <v>279</v>
       </c>
       <c r="E209" s="16"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="20"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="17"/>
       <c r="H209" s="2">
         <v>80</v>
       </c>
       <c r="I209" s="12"/>
-      <c r="J209" s="20"/>
-      <c r="K209" s="20"/>
+      <c r="J209" s="17"/>
+      <c r="K209" s="17"/>
       <c r="L209" s="2">
         <v>70</v>
       </c>
       <c r="M209" s="12"/>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A210" s="18"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="24"/>
       <c r="D210" s="14" t="s">
         <v>280</v>
       </c>
       <c r="E210" s="16"/>
-      <c r="F210" s="20"/>
-      <c r="G210" s="20"/>
+      <c r="F210" s="17"/>
+      <c r="G210" s="17"/>
       <c r="H210" s="2">
         <v>144</v>
       </c>
       <c r="I210" s="12"/>
-      <c r="J210" s="20"/>
-      <c r="K210" s="20"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
       <c r="L210" s="2">
         <v>193</v>
       </c>
       <c r="M210" s="12"/>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="19"/>
+      <c r="A211" s="24"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="23"/>
       <c r="D211" s="14" t="s">
         <v>281</v>
       </c>
       <c r="E211" s="16"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="20"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
       <c r="H211" s="2">
         <v>31</v>
       </c>
       <c r="I211" s="12"/>
-      <c r="J211" s="20"/>
-      <c r="K211" s="20"/>
+      <c r="J211" s="17"/>
+      <c r="K211" s="17"/>
       <c r="L211" s="2">
         <v>23</v>
       </c>
       <c r="M211" s="12"/>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A212" s="18"/>
-      <c r="B212" s="18"/>
-      <c r="C212" s="17" t="s">
+      <c r="A212" s="24"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="D212" s="17" t="s">
+      <c r="D212" s="22" t="s">
         <v>284</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F212" s="20"/>
-      <c r="G212" s="20" t="s">
+      <c r="F212" s="17"/>
+      <c r="G212" s="17" t="s">
         <v>283</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
-      <c r="J212" s="20"/>
-      <c r="K212" s="20"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="17"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A213" s="18"/>
-      <c r="B213" s="18"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="19"/>
+      <c r="A213" s="24"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="23"/>
       <c r="E213" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-      <c r="J213" s="20"/>
-      <c r="K213" s="20"/>
+      <c r="J213" s="17"/>
+      <c r="K213" s="17"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A214" s="18"/>
-      <c r="B214" s="18"/>
-      <c r="C214" s="18"/>
+      <c r="A214" s="24"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="24"/>
       <c r="D214" s="14" t="s">
         <v>287</v>
       </c>
       <c r="E214" s="16"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="20"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
       <c r="H214" s="2"/>
       <c r="I214" s="12"/>
-      <c r="J214" s="20"/>
-      <c r="K214" s="20"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="17"/>
       <c r="L214" s="2"/>
       <c r="M214" s="12"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A215" s="18"/>
-      <c r="B215" s="18"/>
-      <c r="C215" s="18"/>
+      <c r="A215" s="24"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="24"/>
       <c r="D215" s="14" t="s">
         <v>288</v>
       </c>
       <c r="E215" s="16"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
       <c r="H215" s="2"/>
       <c r="I215" s="12"/>
-      <c r="J215" s="20"/>
-      <c r="K215" s="20"/>
+      <c r="J215" s="17"/>
+      <c r="K215" s="17"/>
       <c r="L215" s="2"/>
       <c r="M215" s="12"/>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A216" s="18"/>
-      <c r="B216" s="18"/>
-      <c r="C216" s="19"/>
+      <c r="A216" s="24"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="23"/>
       <c r="D216" s="14" t="s">
         <v>289</v>
       </c>
       <c r="E216" s="16"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="17"/>
       <c r="H216" s="2"/>
       <c r="I216" s="12"/>
-      <c r="J216" s="20"/>
-      <c r="K216" s="20"/>
+      <c r="J216" s="17"/>
+      <c r="K216" s="17"/>
       <c r="L216" s="2"/>
       <c r="M216" s="12"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A217" s="18"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="17" t="s">
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="22" t="s">
         <v>290</v>
       </c>
       <c r="D217" s="14" t="s">
         <v>291</v>
       </c>
       <c r="E217" s="16"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="20">
+      <c r="F217" s="17"/>
+      <c r="G217" s="17">
         <v>210</v>
       </c>
       <c r="H217" s="2"/>
       <c r="I217" s="12"/>
-      <c r="J217" s="20"/>
-      <c r="K217" s="20">
+      <c r="J217" s="17"/>
+      <c r="K217" s="17">
         <v>206</v>
       </c>
       <c r="L217" s="2"/>
       <c r="M217" s="12"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A218" s="18"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="19"/>
+      <c r="A218" s="24"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="23"/>
       <c r="D218" s="14" t="s">
         <v>292</v>
       </c>
       <c r="E218" s="16"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="20"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
       <c r="H218" s="2"/>
       <c r="I218" s="12"/>
-      <c r="J218" s="20"/>
-      <c r="K218" s="20"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
       <c r="L218" s="2"/>
       <c r="M218" s="12"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A219" s="18"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="17" t="s">
+      <c r="A219" s="24"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="22" t="s">
         <v>293</v>
       </c>
       <c r="D219" s="14" t="s">
         <v>294</v>
       </c>
       <c r="E219" s="16"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20">
+      <c r="F219" s="17"/>
+      <c r="G219" s="17">
         <v>1950</v>
       </c>
       <c r="H219" s="2">
         <v>122</v>
       </c>
       <c r="I219" s="12"/>
-      <c r="J219" s="20"/>
-      <c r="K219" s="20">
+      <c r="J219" s="17"/>
+      <c r="K219" s="17">
         <v>1978</v>
       </c>
       <c r="L219" s="2">
@@ -7128,83 +7140,83 @@
       <c r="M219" s="12"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A220" s="18"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="18"/>
+      <c r="A220" s="24"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="24"/>
       <c r="D220" s="14" t="s">
         <v>295</v>
       </c>
       <c r="E220" s="16"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
       <c r="H220" s="2">
         <v>1775</v>
       </c>
       <c r="I220" s="12"/>
-      <c r="J220" s="20"/>
-      <c r="K220" s="20"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="17"/>
       <c r="L220" s="2">
         <v>1820</v>
       </c>
       <c r="M220" s="12"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A221" s="18"/>
-      <c r="B221" s="18"/>
-      <c r="C221" s="18"/>
+      <c r="A221" s="24"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="24"/>
       <c r="D221" s="14" t="s">
         <v>296</v>
       </c>
       <c r="E221" s="16"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
       <c r="H221" s="2">
         <v>6.6</v>
       </c>
       <c r="I221" s="12"/>
-      <c r="J221" s="20"/>
-      <c r="K221" s="20"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="17"/>
       <c r="L221" s="2">
         <v>7.7</v>
       </c>
       <c r="M221" s="12"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A222" s="18"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="19"/>
+      <c r="A222" s="24"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="23"/>
       <c r="D222" s="14" t="s">
         <v>297</v>
       </c>
       <c r="E222" s="16"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
       <c r="H222" s="2">
         <v>47</v>
       </c>
       <c r="I222" s="12"/>
-      <c r="J222" s="20"/>
-      <c r="K222" s="20"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="17"/>
       <c r="L222" s="2">
         <v>35</v>
       </c>
       <c r="M222" s="12"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A223" s="18"/>
-      <c r="B223" s="19"/>
+      <c r="A223" s="24"/>
+      <c r="B223" s="23"/>
       <c r="C223" s="14" t="s">
         <v>298</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="16"/>
-      <c r="F223" s="20"/>
+      <c r="F223" s="17"/>
       <c r="G223" s="2">
         <v>189</v>
       </c>
       <c r="H223" s="12"/>
       <c r="I223" s="12"/>
-      <c r="J223" s="20"/>
+      <c r="J223" s="17"/>
       <c r="K223" s="2">
         <v>177</v>
       </c>
@@ -7212,8 +7224,8 @@
       <c r="M223" s="12"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A224" s="18"/>
-      <c r="B224" s="17" t="s">
+      <c r="A224" s="24"/>
+      <c r="B224" s="22" t="s">
         <v>401</v>
       </c>
       <c r="C224" s="14" t="s">
@@ -7221,76 +7233,76 @@
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="16"/>
-      <c r="F224" s="20">
+      <c r="F224" s="17">
         <v>1512</v>
       </c>
-      <c r="G224" s="20">
+      <c r="G224" s="17">
         <v>1512</v>
       </c>
       <c r="H224" s="12"/>
       <c r="I224" s="12"/>
-      <c r="J224" s="20">
+      <c r="J224" s="17">
         <v>1490</v>
       </c>
-      <c r="K224" s="20">
+      <c r="K224" s="17">
         <v>1490</v>
       </c>
-      <c r="L224" s="25"/>
+      <c r="L224" s="27"/>
       <c r="M224" s="12"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A225" s="18"/>
-      <c r="B225" s="18"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="24"/>
       <c r="C225" s="14" t="s">
         <v>300</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="16"/>
-      <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
       <c r="H225" s="12"/>
       <c r="I225" s="12"/>
-      <c r="J225" s="20"/>
-      <c r="K225" s="20"/>
-      <c r="L225" s="25"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="17"/>
+      <c r="L225" s="27"/>
       <c r="M225" s="12"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A226" s="18"/>
-      <c r="B226" s="18"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="14" t="s">
         <v>301</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="16"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
       <c r="H226" s="12"/>
       <c r="I226" s="12"/>
-      <c r="J226" s="20"/>
-      <c r="K226" s="20"/>
-      <c r="L226" s="25"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="17"/>
+      <c r="L226" s="27"/>
       <c r="M226" s="12"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A227" s="18"/>
-      <c r="B227" s="19"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="23"/>
       <c r="C227" s="14" t="s">
         <v>302</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="16"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
       <c r="H227" s="12"/>
       <c r="I227" s="12"/>
-      <c r="J227" s="20"/>
-      <c r="K227" s="20"/>
-      <c r="L227" s="25"/>
+      <c r="J227" s="17"/>
+      <c r="K227" s="17"/>
+      <c r="L227" s="27"/>
       <c r="M227" s="12"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A228" s="19"/>
+      <c r="A228" s="23"/>
       <c r="B228" s="14" t="s">
         <v>303</v>
       </c>
@@ -7311,10 +7323,10 @@
       <c r="M228" s="12"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A229" s="17" t="s">
+      <c r="A229" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="B229" s="17" t="s">
+      <c r="B229" s="22" t="s">
         <v>304</v>
       </c>
       <c r="C229" s="14" t="s">
@@ -7322,7 +7334,7 @@
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="16"/>
-      <c r="F229" s="20">
+      <c r="F229" s="17">
         <v>18422</v>
       </c>
       <c r="G229" s="2">
@@ -7330,7 +7342,7 @@
       </c>
       <c r="H229" s="12"/>
       <c r="I229" s="12"/>
-      <c r="J229" s="20">
+      <c r="J229" s="17">
         <v>17260</v>
       </c>
       <c r="K229" s="2">
@@ -7340,20 +7352,20 @@
       <c r="M229" s="12"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A230" s="18"/>
-      <c r="B230" s="18"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="24"/>
       <c r="C230" s="14" t="s">
         <v>306</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="16"/>
-      <c r="F230" s="20"/>
+      <c r="F230" s="17"/>
       <c r="G230" s="2">
         <v>507</v>
       </c>
       <c r="H230" s="12"/>
       <c r="I230" s="12"/>
-      <c r="J230" s="20"/>
+      <c r="J230" s="17"/>
       <c r="K230" s="2">
         <v>488</v>
       </c>
@@ -7361,20 +7373,20 @@
       <c r="M230" s="12"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A231" s="18"/>
-      <c r="B231" s="18"/>
+      <c r="A231" s="24"/>
+      <c r="B231" s="24"/>
       <c r="C231" s="14" t="s">
         <v>307</v>
       </c>
       <c r="D231" s="15"/>
       <c r="E231" s="16"/>
-      <c r="F231" s="20"/>
+      <c r="F231" s="17"/>
       <c r="G231" s="2">
         <v>103</v>
       </c>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
-      <c r="J231" s="20"/>
+      <c r="J231" s="17"/>
       <c r="K231" s="2">
         <v>71</v>
       </c>
@@ -7382,20 +7394,20 @@
       <c r="M231" s="12"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A232" s="18"/>
-      <c r="B232" s="18"/>
+      <c r="A232" s="24"/>
+      <c r="B232" s="24"/>
       <c r="C232" s="14" t="s">
         <v>308</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="16"/>
-      <c r="F232" s="20"/>
+      <c r="F232" s="17"/>
       <c r="G232" s="2">
         <v>2343</v>
       </c>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
-      <c r="J232" s="20"/>
+      <c r="J232" s="17"/>
       <c r="K232" s="2">
         <v>2309</v>
       </c>
@@ -7403,20 +7415,20 @@
       <c r="M232" s="12"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A233" s="18"/>
-      <c r="B233" s="18"/>
+      <c r="A233" s="24"/>
+      <c r="B233" s="24"/>
       <c r="C233" s="14" t="s">
         <v>309</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="16"/>
-      <c r="F233" s="20"/>
+      <c r="F233" s="17"/>
       <c r="G233" s="2">
         <v>2.9</v>
       </c>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
-      <c r="J233" s="20"/>
+      <c r="J233" s="17"/>
       <c r="K233" s="2">
         <v>0.24</v>
       </c>
@@ -7424,20 +7436,20 @@
       <c r="M233" s="12"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A234" s="18"/>
-      <c r="B234" s="18"/>
+      <c r="A234" s="24"/>
+      <c r="B234" s="24"/>
       <c r="C234" s="14" t="s">
         <v>310</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="16"/>
-      <c r="F234" s="20"/>
+      <c r="F234" s="17"/>
       <c r="G234" s="2">
         <v>1.7</v>
       </c>
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
-      <c r="J234" s="20"/>
+      <c r="J234" s="17"/>
       <c r="K234" s="2">
         <v>1.6</v>
       </c>
@@ -7445,20 +7457,20 @@
       <c r="M234" s="12"/>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A235" s="18"/>
-      <c r="B235" s="18"/>
+      <c r="A235" s="24"/>
+      <c r="B235" s="24"/>
       <c r="C235" s="14" t="s">
         <v>311</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="16"/>
-      <c r="F235" s="20"/>
+      <c r="F235" s="17"/>
       <c r="G235" s="2">
         <v>3</v>
       </c>
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
-      <c r="J235" s="20"/>
+      <c r="J235" s="17"/>
       <c r="K235" s="2">
         <v>2.5</v>
       </c>
@@ -7466,20 +7478,20 @@
       <c r="M235" s="12"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A236" s="18"/>
-      <c r="B236" s="19"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="23"/>
       <c r="C236" s="14" t="s">
         <v>312</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="16"/>
-      <c r="F236" s="20"/>
+      <c r="F236" s="17"/>
       <c r="G236" s="2">
         <v>0.17</v>
       </c>
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
-      <c r="J236" s="20"/>
+      <c r="J236" s="17"/>
       <c r="K236" s="2">
         <v>0.17</v>
       </c>
@@ -7487,8 +7499,8 @@
       <c r="M236" s="12"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A237" s="18"/>
-      <c r="B237" s="17" t="s">
+      <c r="A237" s="24"/>
+      <c r="B237" s="22" t="s">
         <v>313</v>
       </c>
       <c r="C237" s="14" t="s">
@@ -7496,7 +7508,7 @@
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="16"/>
-      <c r="F237" s="20">
+      <c r="F237" s="17">
         <v>217</v>
       </c>
       <c r="G237" s="2">
@@ -7504,7 +7516,7 @@
       </c>
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
-      <c r="J237" s="20">
+      <c r="J237" s="17">
         <v>204</v>
       </c>
       <c r="K237" s="2">
@@ -7514,20 +7526,20 @@
       <c r="M237" s="12"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A238" s="18"/>
-      <c r="B238" s="18"/>
+      <c r="A238" s="24"/>
+      <c r="B238" s="24"/>
       <c r="C238" s="14" t="s">
         <v>315</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="16"/>
-      <c r="F238" s="20"/>
+      <c r="F238" s="17"/>
       <c r="G238" s="2">
         <v>18</v>
       </c>
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
-      <c r="J238" s="20"/>
+      <c r="J238" s="17"/>
       <c r="K238" s="2">
         <v>16</v>
       </c>
@@ -7535,20 +7547,20 @@
       <c r="M238" s="12"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A239" s="18"/>
-      <c r="B239" s="18"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="24"/>
       <c r="C239" s="14" t="s">
         <v>316</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
-      <c r="F239" s="20"/>
+      <c r="F239" s="17"/>
       <c r="G239" s="2">
         <v>0.5</v>
       </c>
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
-      <c r="J239" s="20"/>
+      <c r="J239" s="17"/>
       <c r="K239" s="2">
         <v>0.53</v>
       </c>
@@ -7556,20 +7568,20 @@
       <c r="M239" s="12"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A240" s="18"/>
-      <c r="B240" s="18"/>
+      <c r="A240" s="24"/>
+      <c r="B240" s="24"/>
       <c r="C240" s="14" t="s">
         <v>317</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
-      <c r="F240" s="20"/>
+      <c r="F240" s="17"/>
       <c r="G240" s="2">
         <v>184</v>
       </c>
       <c r="H240" s="12"/>
       <c r="I240" s="12"/>
-      <c r="J240" s="20"/>
+      <c r="J240" s="17"/>
       <c r="K240" s="2">
         <v>178</v>
       </c>
@@ -7577,20 +7589,20 @@
       <c r="M240" s="12"/>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A241" s="18"/>
-      <c r="B241" s="19"/>
+      <c r="A241" s="24"/>
+      <c r="B241" s="23"/>
       <c r="C241" s="14" t="s">
         <v>318</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="16"/>
-      <c r="F241" s="20"/>
+      <c r="F241" s="17"/>
       <c r="G241" s="2">
         <v>8.1</v>
       </c>
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
-      <c r="J241" s="20"/>
+      <c r="J241" s="17"/>
       <c r="K241" s="2">
         <v>5.3</v>
       </c>
@@ -7598,8 +7610,8 @@
       <c r="M241" s="12"/>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A242" s="18"/>
-      <c r="B242" s="17" t="s">
+      <c r="A242" s="24"/>
+      <c r="B242" s="22" t="s">
         <v>319</v>
       </c>
       <c r="C242" s="14" t="s">
@@ -7607,7 +7619,7 @@
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="16"/>
-      <c r="F242" s="20">
+      <c r="F242" s="17">
         <v>5.9</v>
       </c>
       <c r="G242" s="2">
@@ -7615,7 +7627,7 @@
       </c>
       <c r="H242" s="12"/>
       <c r="I242" s="12"/>
-      <c r="J242" s="20">
+      <c r="J242" s="17">
         <v>2.1</v>
       </c>
       <c r="K242" s="2"/>
@@ -7623,39 +7635,39 @@
       <c r="M242" s="12"/>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A243" s="18"/>
-      <c r="B243" s="18"/>
+      <c r="A243" s="24"/>
+      <c r="B243" s="24"/>
       <c r="C243" s="14" t="s">
         <v>321</v>
       </c>
       <c r="D243" s="15"/>
       <c r="E243" s="16"/>
-      <c r="F243" s="20"/>
+      <c r="F243" s="17"/>
       <c r="G243" s="2">
         <v>1.5</v>
       </c>
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
-      <c r="J243" s="20"/>
+      <c r="J243" s="17"/>
       <c r="K243" s="2"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A244" s="18"/>
-      <c r="B244" s="19"/>
+      <c r="A244" s="24"/>
+      <c r="B244" s="23"/>
       <c r="C244" s="14" t="s">
         <v>322</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="16"/>
-      <c r="F244" s="20"/>
+      <c r="F244" s="17"/>
       <c r="G244" s="2">
         <v>1.6</v>
       </c>
       <c r="H244" s="12"/>
       <c r="I244" s="12"/>
-      <c r="J244" s="20"/>
+      <c r="J244" s="17"/>
       <c r="K244" s="2">
         <v>1.6</v>
       </c>
@@ -7663,8 +7675,8 @@
       <c r="M244" s="12"/>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A245" s="18"/>
-      <c r="B245" s="17" t="s">
+      <c r="A245" s="24"/>
+      <c r="B245" s="22" t="s">
         <v>323</v>
       </c>
       <c r="C245" s="14" t="s">
@@ -7672,7 +7684,7 @@
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="16"/>
-      <c r="F245" s="20">
+      <c r="F245" s="17">
         <v>179</v>
       </c>
       <c r="G245" s="2">
@@ -7680,7 +7692,7 @@
       </c>
       <c r="H245" s="12"/>
       <c r="I245" s="12"/>
-      <c r="J245" s="20">
+      <c r="J245" s="17">
         <v>154</v>
       </c>
       <c r="K245" s="2">
@@ -7690,20 +7702,20 @@
       <c r="M245" s="12"/>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A246" s="18"/>
-      <c r="B246" s="18"/>
+      <c r="A246" s="24"/>
+      <c r="B246" s="24"/>
       <c r="C246" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="16"/>
-      <c r="F246" s="20"/>
+      <c r="F246" s="17"/>
       <c r="G246" s="2">
         <v>5.5</v>
       </c>
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
-      <c r="J246" s="20"/>
+      <c r="J246" s="17"/>
       <c r="K246" s="2">
         <v>1.7</v>
       </c>
@@ -7711,20 +7723,20 @@
       <c r="M246" s="12"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A247" s="18"/>
-      <c r="B247" s="18"/>
+      <c r="A247" s="24"/>
+      <c r="B247" s="24"/>
       <c r="C247" s="14" t="s">
         <v>325</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="16"/>
-      <c r="F247" s="20"/>
+      <c r="F247" s="17"/>
       <c r="G247" s="2">
         <v>138</v>
       </c>
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
-      <c r="J247" s="20"/>
+      <c r="J247" s="17"/>
       <c r="K247" s="2">
         <v>131</v>
       </c>
@@ -7732,25 +7744,25 @@
       <c r="M247" s="12"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A248" s="18"/>
-      <c r="B248" s="18"/>
-      <c r="C248" s="17" t="s">
+      <c r="A248" s="24"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="22" t="s">
         <v>326</v>
       </c>
       <c r="D248" s="14" t="s">
         <v>327</v>
       </c>
       <c r="E248" s="16"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="20">
+      <c r="F248" s="17"/>
+      <c r="G248" s="17">
         <v>9.1999999999999993</v>
       </c>
       <c r="H248" s="2">
         <v>1</v>
       </c>
       <c r="I248" s="12"/>
-      <c r="J248" s="20"/>
-      <c r="K248" s="20">
+      <c r="J248" s="17"/>
+      <c r="K248" s="17">
         <v>9.1999999999999993</v>
       </c>
       <c r="L248" s="2">
@@ -7759,41 +7771,41 @@
       <c r="M248" s="12"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A249" s="18"/>
-      <c r="B249" s="18"/>
-      <c r="C249" s="19"/>
+      <c r="A249" s="24"/>
+      <c r="B249" s="24"/>
+      <c r="C249" s="23"/>
       <c r="D249" s="14" t="s">
         <v>328</v>
       </c>
       <c r="E249" s="16"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
       <c r="H249" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="I249" s="12"/>
-      <c r="J249" s="20"/>
-      <c r="K249" s="20"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
       <c r="L249" s="2">
         <v>8.1999999999999993</v>
       </c>
       <c r="M249" s="12"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A250" s="19"/>
-      <c r="B250" s="19"/>
+      <c r="A250" s="23"/>
+      <c r="B250" s="23"/>
       <c r="C250" s="14" t="s">
         <v>329</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="16"/>
-      <c r="F250" s="20"/>
+      <c r="F250" s="17"/>
       <c r="G250" s="2">
         <v>3.1</v>
       </c>
       <c r="H250" s="12"/>
       <c r="I250" s="12"/>
-      <c r="J250" s="20"/>
+      <c r="J250" s="17"/>
       <c r="K250" s="2">
         <v>2</v>
       </c>
@@ -7801,33 +7813,33 @@
       <c r="M250" s="12"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A251" s="17" t="s">
+      <c r="A251" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="B251" s="17" t="s">
+      <c r="B251" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C251" s="17" t="s">
+      <c r="C251" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D251" s="29" t="s">
+      <c r="D251" s="18" t="s">
         <v>332</v>
       </c>
       <c r="E251" s="16"/>
-      <c r="F251" s="20">
+      <c r="F251" s="17">
         <v>287</v>
       </c>
-      <c r="G251" s="20">
+      <c r="G251" s="17">
         <v>47</v>
       </c>
       <c r="H251" s="2">
         <v>34</v>
       </c>
       <c r="I251" s="12"/>
-      <c r="J251" s="20">
+      <c r="J251" s="17">
         <v>259</v>
       </c>
-      <c r="K251" s="20">
+      <c r="K251" s="17">
         <v>27</v>
       </c>
       <c r="L251" s="2">
@@ -7836,58 +7848,58 @@
       <c r="M251" s="12"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A252" s="18"/>
-      <c r="B252" s="18"/>
-      <c r="C252" s="18"/>
+      <c r="A252" s="24"/>
+      <c r="B252" s="24"/>
+      <c r="C252" s="24"/>
       <c r="D252" s="14" t="s">
         <v>333</v>
       </c>
       <c r="E252" s="16"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
       <c r="H252" s="2"/>
       <c r="I252" s="12"/>
-      <c r="J252" s="20"/>
-      <c r="K252" s="20"/>
+      <c r="J252" s="17"/>
+      <c r="K252" s="17"/>
       <c r="L252" s="2"/>
       <c r="M252" s="12"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A253" s="18"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="19"/>
+      <c r="A253" s="24"/>
+      <c r="B253" s="24"/>
+      <c r="C253" s="23"/>
       <c r="D253" s="14" t="s">
         <v>334</v>
       </c>
       <c r="E253" s="16"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
       <c r="H253" s="2">
         <v>13</v>
       </c>
       <c r="I253" s="12"/>
-      <c r="J253" s="20"/>
-      <c r="K253" s="20"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="17"/>
       <c r="L253" s="2">
         <v>6.8</v>
       </c>
       <c r="M253" s="12"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A254" s="18"/>
-      <c r="B254" s="18"/>
+      <c r="A254" s="24"/>
+      <c r="B254" s="24"/>
       <c r="C254" s="14" t="s">
         <v>335</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="16"/>
-      <c r="F254" s="20"/>
+      <c r="F254" s="17"/>
       <c r="G254" s="2">
         <v>238</v>
       </c>
       <c r="H254" s="12"/>
       <c r="I254" s="12"/>
-      <c r="J254" s="20"/>
+      <c r="J254" s="17"/>
       <c r="K254" s="2">
         <v>231</v>
       </c>
@@ -7895,20 +7907,20 @@
       <c r="M254" s="12"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A255" s="18"/>
-      <c r="B255" s="19"/>
+      <c r="A255" s="24"/>
+      <c r="B255" s="23"/>
       <c r="C255" s="14" t="s">
         <v>336</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="16"/>
-      <c r="F255" s="20"/>
+      <c r="F255" s="17"/>
       <c r="G255" s="2">
         <v>1.7</v>
       </c>
       <c r="H255" s="12"/>
       <c r="I255" s="12"/>
-      <c r="J255" s="20"/>
+      <c r="J255" s="17"/>
       <c r="K255" s="2">
         <v>0.73</v>
       </c>
@@ -7916,38 +7928,38 @@
       <c r="M255" s="12"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A256" s="18"/>
-      <c r="B256" s="17" t="s">
+      <c r="A256" s="24"/>
+      <c r="B256" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="C256" s="17" t="s">
+      <c r="C256" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="D256" s="17" t="s">
+      <c r="D256" s="22" t="s">
         <v>338</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F256" s="20">
+      <c r="F256" s="17">
         <v>30091</v>
       </c>
-      <c r="G256" s="20">
+      <c r="G256" s="17">
         <v>29992</v>
       </c>
-      <c r="H256" s="20">
+      <c r="H256" s="17">
         <v>441</v>
       </c>
       <c r="I256" s="2">
         <v>47</v>
       </c>
-      <c r="J256" s="20">
+      <c r="J256" s="17">
         <v>29705</v>
       </c>
-      <c r="K256" s="20">
+      <c r="K256" s="17">
         <v>29620</v>
       </c>
-      <c r="L256" s="20">
+      <c r="L256" s="17">
         <v>400</v>
       </c>
       <c r="M256" s="2">
@@ -7955,123 +7967,123 @@
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A257" s="18"/>
-      <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="18"/>
+      <c r="A257" s="24"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
       <c r="E257" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F257" s="20"/>
-      <c r="G257" s="20"/>
-      <c r="H257" s="20"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
       <c r="I257" s="2">
         <v>20</v>
       </c>
-      <c r="J257" s="20"/>
-      <c r="K257" s="20"/>
-      <c r="L257" s="20"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="17"/>
+      <c r="L257" s="17"/>
       <c r="M257" s="2"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A258" s="18"/>
-      <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
+      <c r="A258" s="24"/>
+      <c r="B258" s="24"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
       <c r="E258" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F258" s="20"/>
-      <c r="G258" s="20"/>
-      <c r="H258" s="20"/>
+      <c r="F258" s="17"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
       <c r="I258" s="2">
         <v>2.5</v>
       </c>
-      <c r="J258" s="20"/>
-      <c r="K258" s="20"/>
-      <c r="L258" s="20"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
+      <c r="L258" s="17"/>
       <c r="M258" s="2"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A259" s="18"/>
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="18"/>
+      <c r="A259" s="24"/>
+      <c r="B259" s="24"/>
+      <c r="C259" s="24"/>
+      <c r="D259" s="24"/>
       <c r="E259" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F259" s="20"/>
-      <c r="G259" s="20"/>
-      <c r="H259" s="20"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
       <c r="I259" s="2">
         <v>2.7</v>
       </c>
-      <c r="J259" s="20"/>
-      <c r="K259" s="20"/>
-      <c r="L259" s="20"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
       <c r="M259" s="2"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A260" s="18"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="19"/>
+      <c r="A260" s="24"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="23"/>
       <c r="E260" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F260" s="20"/>
-      <c r="G260" s="20"/>
-      <c r="H260" s="20"/>
+      <c r="F260" s="17"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="17"/>
       <c r="I260" s="2">
         <v>5.3</v>
       </c>
-      <c r="J260" s="20"/>
-      <c r="K260" s="20"/>
-      <c r="L260" s="20"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="17"/>
+      <c r="L260" s="17"/>
       <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A261" s="18"/>
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
       <c r="D261" s="14" t="s">
         <v>344</v>
       </c>
       <c r="E261" s="16"/>
-      <c r="F261" s="20"/>
-      <c r="G261" s="20"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="17"/>
       <c r="H261" s="2">
         <v>0.7</v>
       </c>
       <c r="I261" s="12"/>
-      <c r="J261" s="20"/>
-      <c r="K261" s="20"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="17"/>
       <c r="L261" s="2">
         <v>0.86</v>
       </c>
       <c r="M261" s="12"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A262" s="18"/>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="17" t="s">
+      <c r="A262" s="24"/>
+      <c r="B262" s="24"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="22" t="s">
         <v>345</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F262" s="20"/>
-      <c r="G262" s="20"/>
-      <c r="H262" s="20">
+      <c r="F262" s="17"/>
+      <c r="G262" s="17"/>
+      <c r="H262" s="17">
         <v>29124</v>
       </c>
       <c r="I262" s="2">
         <v>29083</v>
       </c>
-      <c r="J262" s="20"/>
-      <c r="K262" s="20"/>
-      <c r="L262" s="20">
+      <c r="J262" s="17"/>
+      <c r="K262" s="17"/>
+      <c r="L262" s="17">
         <v>28803</v>
       </c>
       <c r="M262" s="2">
@@ -8079,56 +8091,56 @@
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A263" s="18"/>
-      <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="19"/>
+      <c r="A263" s="24"/>
+      <c r="B263" s="24"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="23"/>
       <c r="E263" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F263" s="20"/>
-      <c r="G263" s="20"/>
-      <c r="H263" s="20"/>
+      <c r="F263" s="17"/>
+      <c r="G263" s="17"/>
+      <c r="H263" s="17"/>
       <c r="I263" s="2">
         <v>41</v>
       </c>
-      <c r="J263" s="20"/>
-      <c r="K263" s="20"/>
-      <c r="L263" s="20"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="17"/>
+      <c r="L263" s="17"/>
       <c r="M263" s="2"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A264" s="18"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="19"/>
+      <c r="A264" s="24"/>
+      <c r="B264" s="24"/>
+      <c r="C264" s="23"/>
       <c r="D264" s="14" t="s">
         <v>348</v>
       </c>
       <c r="E264" s="16"/>
-      <c r="F264" s="20"/>
-      <c r="G264" s="20"/>
+      <c r="F264" s="17"/>
+      <c r="G264" s="17"/>
       <c r="H264" s="2"/>
       <c r="I264" s="12"/>
-      <c r="J264" s="20"/>
-      <c r="K264" s="20"/>
+      <c r="J264" s="17"/>
+      <c r="K264" s="17"/>
       <c r="L264" s="2"/>
       <c r="M264" s="12"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A265" s="18"/>
-      <c r="B265" s="19"/>
+      <c r="A265" s="24"/>
+      <c r="B265" s="23"/>
       <c r="C265" s="14" t="s">
         <v>349</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="16"/>
-      <c r="F265" s="20"/>
+      <c r="F265" s="17"/>
       <c r="G265" s="2">
         <v>99</v>
       </c>
       <c r="H265" s="12"/>
       <c r="I265" s="12"/>
-      <c r="J265" s="20"/>
+      <c r="J265" s="17"/>
       <c r="K265" s="2">
         <v>85</v>
       </c>
@@ -8136,66 +8148,66 @@
       <c r="M265" s="12"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A266" s="18"/>
-      <c r="B266" s="17" t="s">
+      <c r="A266" s="24"/>
+      <c r="B266" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="22" t="s">
         <v>351</v>
       </c>
       <c r="D266" s="14" t="s">
         <v>352</v>
       </c>
       <c r="E266" s="16"/>
-      <c r="F266" s="20">
+      <c r="F266" s="17">
         <v>35</v>
       </c>
-      <c r="G266" s="20">
+      <c r="G266" s="17">
         <v>30</v>
       </c>
       <c r="H266" s="2"/>
       <c r="I266" s="12"/>
-      <c r="J266" s="20">
+      <c r="J266" s="17">
         <v>25</v>
       </c>
-      <c r="K266" s="20">
+      <c r="K266" s="17">
         <v>20</v>
       </c>
       <c r="L266" s="2"/>
       <c r="M266" s="12"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A267" s="18"/>
-      <c r="B267" s="18"/>
-      <c r="C267" s="19"/>
+      <c r="A267" s="24"/>
+      <c r="B267" s="24"/>
+      <c r="C267" s="23"/>
       <c r="D267" s="14" t="s">
         <v>353</v>
       </c>
       <c r="E267" s="16"/>
-      <c r="F267" s="20"/>
-      <c r="G267" s="20"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
       <c r="H267" s="2"/>
       <c r="I267" s="12"/>
-      <c r="J267" s="20"/>
-      <c r="K267" s="20"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
       <c r="L267" s="2"/>
       <c r="M267" s="12"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A268" s="18"/>
-      <c r="B268" s="19"/>
+      <c r="A268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="14" t="s">
         <v>354</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="16"/>
-      <c r="F268" s="20"/>
+      <c r="F268" s="17"/>
       <c r="G268" s="2">
         <v>5.3</v>
       </c>
       <c r="H268" s="12"/>
       <c r="I268" s="12"/>
-      <c r="J268" s="20"/>
+      <c r="J268" s="17"/>
       <c r="K268" s="2">
         <v>4.8</v>
       </c>
@@ -8203,8 +8215,8 @@
       <c r="M268" s="12"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A269" s="18"/>
-      <c r="B269" s="17" t="s">
+      <c r="A269" s="24"/>
+      <c r="B269" s="22" t="s">
         <v>355</v>
       </c>
       <c r="C269" s="14" t="s">
@@ -8212,13 +8224,13 @@
       </c>
       <c r="D269" s="15"/>
       <c r="E269" s="16"/>
-      <c r="F269" s="20">
+      <c r="F269" s="17">
         <v>385</v>
       </c>
       <c r="G269" s="2"/>
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
-      <c r="J269" s="20">
+      <c r="J269" s="17">
         <v>342</v>
       </c>
       <c r="K269" s="2"/>
@@ -8226,58 +8238,58 @@
       <c r="M269" s="12"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A270" s="18"/>
-      <c r="B270" s="18"/>
+      <c r="A270" s="24"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="14" t="s">
         <v>357</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="16"/>
-      <c r="F270" s="20"/>
+      <c r="F270" s="17"/>
       <c r="G270" s="2">
         <v>11</v>
       </c>
       <c r="H270" s="12"/>
       <c r="I270" s="12"/>
-      <c r="J270" s="20"/>
+      <c r="J270" s="17"/>
       <c r="K270" s="2"/>
       <c r="L270" s="12"/>
       <c r="M270" s="12"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A271" s="18"/>
-      <c r="B271" s="18"/>
+      <c r="A271" s="24"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="14" t="s">
         <v>358</v>
       </c>
       <c r="D271" s="15"/>
       <c r="E271" s="16"/>
-      <c r="F271" s="20"/>
+      <c r="F271" s="17"/>
       <c r="G271" s="2">
         <v>13</v>
       </c>
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
-      <c r="J271" s="20"/>
+      <c r="J271" s="17"/>
       <c r="K271" s="2"/>
       <c r="L271" s="12"/>
       <c r="M271" s="12"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A272" s="18"/>
-      <c r="B272" s="18"/>
+      <c r="A272" s="24"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="14" t="s">
         <v>359</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="16"/>
-      <c r="F272" s="20"/>
+      <c r="F272" s="17"/>
       <c r="G272" s="2">
         <v>26</v>
       </c>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
-      <c r="J272" s="20"/>
+      <c r="J272" s="17"/>
       <c r="K272" s="2">
         <v>16</v>
       </c>
@@ -8285,20 +8297,20 @@
       <c r="M272" s="12"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A273" s="18"/>
-      <c r="B273" s="19"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="14" t="s">
         <v>360</v>
       </c>
       <c r="D273" s="15"/>
       <c r="E273" s="16"/>
-      <c r="F273" s="20"/>
+      <c r="F273" s="17"/>
       <c r="G273" s="2">
         <v>270</v>
       </c>
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
-      <c r="J273" s="20"/>
+      <c r="J273" s="17"/>
       <c r="K273" s="2">
         <v>261</v>
       </c>
@@ -8306,8 +8318,8 @@
       <c r="M273" s="12"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A274" s="18"/>
-      <c r="B274" s="17" t="s">
+      <c r="A274" s="24"/>
+      <c r="B274" s="22" t="s">
         <v>361</v>
       </c>
       <c r="C274" s="14" t="s">
@@ -8315,7 +8327,7 @@
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="16"/>
-      <c r="F274" s="20">
+      <c r="F274" s="17">
         <v>248</v>
       </c>
       <c r="G274" s="2">
@@ -8323,7 +8335,7 @@
       </c>
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
-      <c r="J274" s="20">
+      <c r="J274" s="17">
         <v>261</v>
       </c>
       <c r="K274" s="2">
@@ -8333,25 +8345,25 @@
       <c r="M274" s="12"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A275" s="18"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="17" t="s">
+      <c r="A275" s="24"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="22" t="s">
         <v>363</v>
       </c>
       <c r="D275" s="14" t="s">
         <v>364</v>
       </c>
       <c r="E275" s="16"/>
-      <c r="F275" s="20"/>
-      <c r="G275" s="20">
+      <c r="F275" s="17"/>
+      <c r="G275" s="17">
         <v>25</v>
       </c>
       <c r="H275" s="2">
         <v>25</v>
       </c>
       <c r="I275" s="12"/>
-      <c r="J275" s="20"/>
-      <c r="K275" s="20">
+      <c r="J275" s="17"/>
+      <c r="K275" s="17">
         <v>25</v>
       </c>
       <c r="L275" s="2">
@@ -8360,41 +8372,41 @@
       <c r="M275" s="12"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A276" s="18"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="19"/>
+      <c r="A276" s="24"/>
+      <c r="B276" s="24"/>
+      <c r="C276" s="23"/>
       <c r="D276" s="14" t="s">
         <v>365</v>
       </c>
       <c r="E276" s="16"/>
-      <c r="F276" s="20"/>
-      <c r="G276" s="20"/>
+      <c r="F276" s="17"/>
+      <c r="G276" s="17"/>
       <c r="H276" s="2">
         <v>0.32</v>
       </c>
       <c r="I276" s="12"/>
-      <c r="J276" s="20"/>
-      <c r="K276" s="20"/>
+      <c r="J276" s="17"/>
+      <c r="K276" s="17"/>
       <c r="L276" s="2">
         <v>0.31</v>
       </c>
       <c r="M276" s="12"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A277" s="19"/>
-      <c r="B277" s="19"/>
+      <c r="A277" s="23"/>
+      <c r="B277" s="23"/>
       <c r="C277" s="14" t="s">
         <v>366</v>
       </c>
       <c r="D277" s="15"/>
       <c r="E277" s="16"/>
-      <c r="F277" s="20"/>
+      <c r="F277" s="17"/>
       <c r="G277" s="2">
         <v>108</v>
       </c>
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
-      <c r="J277" s="20"/>
+      <c r="J277" s="17"/>
       <c r="K277" s="2">
         <v>107</v>
       </c>
@@ -8402,7 +8414,7 @@
       <c r="M277" s="12"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A278" s="17" t="s">
+      <c r="A278" s="22" t="s">
         <v>396</v>
       </c>
       <c r="B278" s="14" t="s">
@@ -8425,7 +8437,7 @@
       <c r="M278" s="12"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A279" s="18"/>
+      <c r="A279" s="24"/>
       <c r="B279" s="14" t="s">
         <v>368</v>
       </c>
@@ -8446,7 +8458,7 @@
       <c r="M279" s="12"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A280" s="18"/>
+      <c r="A280" s="24"/>
       <c r="B280" s="14" t="s">
         <v>369</v>
       </c>
@@ -8467,7 +8479,7 @@
       <c r="M280" s="12"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A281" s="19"/>
+      <c r="A281" s="23"/>
       <c r="B281" s="14" t="s">
         <v>370</v>
       </c>
@@ -8486,33 +8498,33 @@
       <c r="M281" s="12"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A282" s="17" t="s">
+      <c r="A282" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="B282" s="17" t="s">
+      <c r="B282" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="C282" s="17" t="s">
+      <c r="C282" s="22" t="s">
         <v>372</v>
       </c>
       <c r="D282" s="14" t="s">
         <v>373</v>
       </c>
       <c r="E282" s="16"/>
-      <c r="F282" s="20">
+      <c r="F282" s="17">
         <v>183</v>
       </c>
-      <c r="G282" s="20">
+      <c r="G282" s="17">
         <v>31</v>
       </c>
       <c r="H282" s="2">
         <v>27</v>
       </c>
       <c r="I282" s="12"/>
-      <c r="J282" s="20">
+      <c r="J282" s="17">
         <v>161</v>
       </c>
-      <c r="K282" s="20">
+      <c r="K282" s="17">
         <v>17</v>
       </c>
       <c r="L282" s="2">
@@ -8521,41 +8533,41 @@
       <c r="M282" s="12"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A283" s="18"/>
-      <c r="B283" s="18"/>
-      <c r="C283" s="19"/>
+      <c r="A283" s="24"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="23"/>
       <c r="D283" s="14" t="s">
         <v>374</v>
       </c>
       <c r="E283" s="16"/>
-      <c r="F283" s="20"/>
-      <c r="G283" s="20"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="17"/>
       <c r="H283" s="2">
         <v>4.9000000000000004</v>
       </c>
       <c r="I283" s="12"/>
-      <c r="J283" s="20"/>
-      <c r="K283" s="20"/>
+      <c r="J283" s="17"/>
+      <c r="K283" s="17"/>
       <c r="L283" s="2">
         <v>4.8</v>
       </c>
       <c r="M283" s="12"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A284" s="18"/>
-      <c r="B284" s="18"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
       <c r="C284" s="14" t="s">
         <v>375</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="16"/>
-      <c r="F284" s="20"/>
+      <c r="F284" s="17"/>
       <c r="G284" s="2">
         <v>28</v>
       </c>
       <c r="H284" s="12"/>
       <c r="I284" s="12"/>
-      <c r="J284" s="20"/>
+      <c r="J284" s="17"/>
       <c r="K284" s="2">
         <v>28</v>
       </c>
@@ -8563,39 +8575,39 @@
       <c r="M284" s="12"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A285" s="18"/>
-      <c r="B285" s="18"/>
+      <c r="A285" s="24"/>
+      <c r="B285" s="24"/>
       <c r="C285" s="14" t="s">
         <v>376</v>
       </c>
       <c r="D285" s="15"/>
       <c r="E285" s="16"/>
-      <c r="F285" s="20"/>
+      <c r="F285" s="17"/>
       <c r="G285" s="2">
         <v>7</v>
       </c>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
-      <c r="J285" s="20"/>
+      <c r="J285" s="17"/>
       <c r="K285" s="2"/>
       <c r="L285" s="12"/>
       <c r="M285" s="12"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A286" s="18"/>
-      <c r="B286" s="18"/>
+      <c r="A286" s="24"/>
+      <c r="B286" s="24"/>
       <c r="C286" s="14" t="s">
         <v>377</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="16"/>
-      <c r="F286" s="20"/>
+      <c r="F286" s="17"/>
       <c r="G286" s="2">
         <v>0.97</v>
       </c>
       <c r="H286" s="12"/>
       <c r="I286" s="12"/>
-      <c r="J286" s="20"/>
+      <c r="J286" s="17"/>
       <c r="K286" s="2">
         <v>1</v>
       </c>
@@ -8603,39 +8615,39 @@
       <c r="M286" s="12"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A287" s="18"/>
-      <c r="B287" s="18"/>
+      <c r="A287" s="24"/>
+      <c r="B287" s="24"/>
       <c r="C287" s="14" t="s">
         <v>378</v>
       </c>
       <c r="D287" s="15"/>
       <c r="E287" s="16"/>
-      <c r="F287" s="20"/>
+      <c r="F287" s="17"/>
       <c r="G287" s="2">
         <v>0.25</v>
       </c>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
-      <c r="J287" s="20"/>
+      <c r="J287" s="17"/>
       <c r="K287" s="2"/>
       <c r="L287" s="12"/>
       <c r="M287" s="12"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A288" s="18"/>
-      <c r="B288" s="18"/>
+      <c r="A288" s="24"/>
+      <c r="B288" s="24"/>
       <c r="C288" s="14" t="s">
         <v>379</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="16"/>
-      <c r="F288" s="20"/>
+      <c r="F288" s="17"/>
       <c r="G288" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
-      <c r="J288" s="20"/>
+      <c r="J288" s="17"/>
       <c r="K288" s="2">
         <v>5.2</v>
       </c>
@@ -8643,25 +8655,25 @@
       <c r="M288" s="12"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A289" s="18"/>
-      <c r="B289" s="18"/>
-      <c r="C289" s="17" t="s">
+      <c r="A289" s="24"/>
+      <c r="B289" s="24"/>
+      <c r="C289" s="22" t="s">
         <v>380</v>
       </c>
       <c r="D289" s="14" t="s">
         <v>381</v>
       </c>
       <c r="E289" s="16"/>
-      <c r="F289" s="20"/>
-      <c r="G289" s="20">
+      <c r="F289" s="17"/>
+      <c r="G289" s="17">
         <v>3.4</v>
       </c>
       <c r="H289" s="2">
         <v>1.9</v>
       </c>
       <c r="I289" s="12"/>
-      <c r="J289" s="20"/>
-      <c r="K289" s="20">
+      <c r="J289" s="17"/>
+      <c r="K289" s="17">
         <v>2.2000000000000002</v>
       </c>
       <c r="L289" s="2">
@@ -8670,28 +8682,28 @@
       <c r="M289" s="12"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A290" s="18"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="19"/>
+      <c r="A290" s="24"/>
+      <c r="B290" s="23"/>
+      <c r="C290" s="23"/>
       <c r="D290" s="14" t="s">
         <v>382</v>
       </c>
       <c r="E290" s="16"/>
-      <c r="F290" s="20"/>
-      <c r="G290" s="20"/>
+      <c r="F290" s="17"/>
+      <c r="G290" s="17"/>
       <c r="H290" s="2">
         <v>1.5</v>
       </c>
       <c r="I290" s="12"/>
-      <c r="J290" s="20"/>
-      <c r="K290" s="20"/>
+      <c r="J290" s="17"/>
+      <c r="K290" s="17"/>
       <c r="L290" s="2">
         <v>1.2</v>
       </c>
       <c r="M290" s="12"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A291" s="18"/>
+      <c r="A291" s="24"/>
       <c r="B291" s="14" t="s">
         <v>403</v>
       </c>
@@ -8712,8 +8724,8 @@
       <c r="M291" s="12"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A292" s="18"/>
-      <c r="B292" s="17" t="s">
+      <c r="A292" s="24"/>
+      <c r="B292" s="22" t="s">
         <v>404</v>
       </c>
       <c r="C292" s="14" t="s">
@@ -8721,7 +8733,7 @@
       </c>
       <c r="D292" s="15"/>
       <c r="E292" s="16"/>
-      <c r="F292" s="20">
+      <c r="F292" s="17">
         <v>8</v>
       </c>
       <c r="G292" s="2">
@@ -8729,7 +8741,7 @@
       </c>
       <c r="H292" s="12"/>
       <c r="I292" s="12"/>
-      <c r="J292" s="20">
+      <c r="J292" s="17">
         <v>6.3</v>
       </c>
       <c r="K292" s="2">
@@ -8739,20 +8751,20 @@
       <c r="M292" s="12"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A293" s="19"/>
-      <c r="B293" s="19"/>
+      <c r="A293" s="23"/>
+      <c r="B293" s="23"/>
       <c r="C293" s="14" t="s">
         <v>384</v>
       </c>
       <c r="D293" s="15"/>
       <c r="E293" s="16"/>
-      <c r="F293" s="20"/>
+      <c r="F293" s="17"/>
       <c r="G293" s="2">
         <v>0.06</v>
       </c>
       <c r="H293" s="12"/>
       <c r="I293" s="12"/>
-      <c r="J293" s="20"/>
+      <c r="J293" s="17"/>
       <c r="K293" s="2">
         <v>0.06</v>
       </c>
@@ -8761,6 +8773,538 @@
     </row>
   </sheetData>
   <mergeCells count="556">
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="C223:E223"/>
+    <mergeCell ref="B204:E204"/>
+    <mergeCell ref="B205:E205"/>
+    <mergeCell ref="B206:E206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B114:B131"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F292:F293"/>
+    <mergeCell ref="J292:J293"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="A282:A293"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B80:B112"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A278:A281"/>
+    <mergeCell ref="G282:G283"/>
+    <mergeCell ref="G266:G267"/>
+    <mergeCell ref="F245:F250"/>
+    <mergeCell ref="J245:J250"/>
+    <mergeCell ref="F229:F236"/>
+    <mergeCell ref="J229:J236"/>
+    <mergeCell ref="B229:B236"/>
+    <mergeCell ref="F237:F241"/>
+    <mergeCell ref="J237:J241"/>
+    <mergeCell ref="B237:B241"/>
+    <mergeCell ref="F224:F227"/>
+    <mergeCell ref="G224:G227"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B208:B223"/>
+    <mergeCell ref="K282:K283"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="G289:G290"/>
+    <mergeCell ref="K289:K290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="B282:B290"/>
+    <mergeCell ref="F282:F290"/>
+    <mergeCell ref="J282:J290"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="K275:K276"/>
+    <mergeCell ref="F274:F277"/>
+    <mergeCell ref="J274:J277"/>
+    <mergeCell ref="B274:B277"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="D275:E275"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:E281"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="K266:K267"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="F266:F268"/>
+    <mergeCell ref="J266:J268"/>
+    <mergeCell ref="F269:F273"/>
+    <mergeCell ref="J269:J273"/>
+    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="C256:C264"/>
+    <mergeCell ref="F256:F265"/>
+    <mergeCell ref="J256:J265"/>
+    <mergeCell ref="B256:B265"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="H256:H260"/>
+    <mergeCell ref="C265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="C269:E269"/>
+    <mergeCell ref="C270:E270"/>
+    <mergeCell ref="C271:E271"/>
+    <mergeCell ref="C272:E272"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="L256:L260"/>
+    <mergeCell ref="D256:D260"/>
+    <mergeCell ref="H262:H263"/>
+    <mergeCell ref="L262:L263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="G256:G264"/>
+    <mergeCell ref="K256:K264"/>
+    <mergeCell ref="A162:A207"/>
+    <mergeCell ref="A208:A228"/>
+    <mergeCell ref="A229:A250"/>
+    <mergeCell ref="G251:G253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="K251:K253"/>
+    <mergeCell ref="B251:B255"/>
+    <mergeCell ref="F251:F255"/>
+    <mergeCell ref="J251:J255"/>
+    <mergeCell ref="A251:A277"/>
+    <mergeCell ref="F242:F244"/>
+    <mergeCell ref="J242:J244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="G248:G249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="K248:K249"/>
+    <mergeCell ref="B245:B250"/>
+    <mergeCell ref="L224:L227"/>
+    <mergeCell ref="K224:K227"/>
+    <mergeCell ref="J224:J227"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C226:E226"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="G219:G222"/>
+    <mergeCell ref="K219:K222"/>
+    <mergeCell ref="C219:C222"/>
+    <mergeCell ref="F208:F223"/>
+    <mergeCell ref="J208:J223"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="G212:G216"/>
+    <mergeCell ref="K212:K216"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="K217:K218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="B197:B203"/>
+    <mergeCell ref="F197:F203"/>
+    <mergeCell ref="J197:J203"/>
+    <mergeCell ref="G208:G211"/>
+    <mergeCell ref="K208:K211"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="G199:G200"/>
+    <mergeCell ref="K199:K200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="G201:G203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="K201:K203"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="G190:G194"/>
+    <mergeCell ref="K190:K194"/>
+    <mergeCell ref="C190:C194"/>
+    <mergeCell ref="J190:J196"/>
+    <mergeCell ref="F190:F196"/>
+    <mergeCell ref="B190:B196"/>
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="F183:F187"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="J188:J189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="K178:K179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C173:C177"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="K180:K182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="F173:F182"/>
+    <mergeCell ref="J173:J182"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="B162:B172"/>
+    <mergeCell ref="D173:D176"/>
+    <mergeCell ref="H173:H176"/>
+    <mergeCell ref="L173:L176"/>
+    <mergeCell ref="G173:G177"/>
+    <mergeCell ref="K173:K177"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="K162:K164"/>
+    <mergeCell ref="F162:F172"/>
+    <mergeCell ref="J162:J172"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="C168:C171"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="L168:L169"/>
+    <mergeCell ref="G168:G171"/>
+    <mergeCell ref="K168:K171"/>
+    <mergeCell ref="G165:G167"/>
+    <mergeCell ref="K165:K167"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="F135:F161"/>
+    <mergeCell ref="J135:J161"/>
+    <mergeCell ref="B135:B161"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="H153:H155"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="L153:L155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="G152:G156"/>
+    <mergeCell ref="K152:K156"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="K135:K142"/>
+    <mergeCell ref="C135:C142"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="G146:G149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="K124:K128"/>
+    <mergeCell ref="C114:C122"/>
+    <mergeCell ref="F114:F131"/>
+    <mergeCell ref="J114:J131"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="F80:F112"/>
+    <mergeCell ref="J80:J112"/>
+    <mergeCell ref="G114:G122"/>
+    <mergeCell ref="K114:K122"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G95:G104"/>
+    <mergeCell ref="K95:K104"/>
+    <mergeCell ref="C95:C104"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="G86:G94"/>
+    <mergeCell ref="K86:K94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="K80:K85"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="K75:K79"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="F65:F79"/>
+    <mergeCell ref="J65:J79"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="K65:K74"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A36:A64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B65:B79"/>
+    <mergeCell ref="A65:A161"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="J53:J56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="J132:J134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="G135:G142"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="K38:K41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="F36:F41"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="K6:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="A3:A35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F6:F18"/>
+    <mergeCell ref="J6:J18"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C243:E243"/>
+    <mergeCell ref="C244:E244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="C233:E233"/>
+    <mergeCell ref="C234:E234"/>
+    <mergeCell ref="C235:E235"/>
+    <mergeCell ref="C236:E236"/>
+    <mergeCell ref="C237:E237"/>
+    <mergeCell ref="C238:E238"/>
+    <mergeCell ref="C239:E239"/>
     <mergeCell ref="C293:E293"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J183:J187"/>
@@ -8785,538 +9329,6 @@
     <mergeCell ref="C240:E240"/>
     <mergeCell ref="C241:E241"/>
     <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C243:E243"/>
-    <mergeCell ref="C244:E244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="C233:E233"/>
-    <mergeCell ref="C234:E234"/>
-    <mergeCell ref="C235:E235"/>
-    <mergeCell ref="C236:E236"/>
-    <mergeCell ref="C237:E237"/>
-    <mergeCell ref="C238:E238"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F6:F18"/>
-    <mergeCell ref="J6:J18"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="K6:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="A3:A35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="F36:F41"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A36:A64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="B65:B79"/>
-    <mergeCell ref="A65:A161"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="J53:J56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G75:G79"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="J132:J134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="G135:G142"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="K65:K74"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="K75:K79"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="F65:F79"/>
-    <mergeCell ref="J65:J79"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="G86:G94"/>
-    <mergeCell ref="K86:K94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="C80:C85"/>
-    <mergeCell ref="K80:K85"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="F80:F112"/>
-    <mergeCell ref="J80:J112"/>
-    <mergeCell ref="G114:G122"/>
-    <mergeCell ref="K114:K122"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G95:G104"/>
-    <mergeCell ref="K95:K104"/>
-    <mergeCell ref="C95:C104"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="K124:K128"/>
-    <mergeCell ref="C114:C122"/>
-    <mergeCell ref="F114:F131"/>
-    <mergeCell ref="J114:J131"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="L153:L155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="G152:G156"/>
-    <mergeCell ref="K152:K156"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="K135:K142"/>
-    <mergeCell ref="C135:C142"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="G146:G149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="F135:F161"/>
-    <mergeCell ref="J135:J161"/>
-    <mergeCell ref="B135:B161"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="H153:H155"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="B162:B172"/>
-    <mergeCell ref="D173:D176"/>
-    <mergeCell ref="H173:H176"/>
-    <mergeCell ref="L173:L176"/>
-    <mergeCell ref="G173:G177"/>
-    <mergeCell ref="K173:K177"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="K162:K164"/>
-    <mergeCell ref="F162:F172"/>
-    <mergeCell ref="J162:J172"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="C168:C171"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="H168:H169"/>
-    <mergeCell ref="L168:L169"/>
-    <mergeCell ref="G168:G171"/>
-    <mergeCell ref="K168:K171"/>
-    <mergeCell ref="G165:G167"/>
-    <mergeCell ref="K165:K167"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="K178:K179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C173:C177"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="K180:K182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="F173:F182"/>
-    <mergeCell ref="J173:J182"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="G190:G194"/>
-    <mergeCell ref="K190:K194"/>
-    <mergeCell ref="C190:C194"/>
-    <mergeCell ref="J190:J196"/>
-    <mergeCell ref="F190:F196"/>
-    <mergeCell ref="B190:B196"/>
-    <mergeCell ref="C195:E195"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="F183:F187"/>
-    <mergeCell ref="B183:B187"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="J188:J189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="B197:B203"/>
-    <mergeCell ref="F197:F203"/>
-    <mergeCell ref="J197:J203"/>
-    <mergeCell ref="G208:G211"/>
-    <mergeCell ref="K208:K211"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C198:E198"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="G199:G200"/>
-    <mergeCell ref="K199:K200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="G201:G203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="K201:K203"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="L224:L227"/>
-    <mergeCell ref="K224:K227"/>
-    <mergeCell ref="J224:J227"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C226:E226"/>
-    <mergeCell ref="C227:E227"/>
-    <mergeCell ref="G219:G222"/>
-    <mergeCell ref="K219:K222"/>
-    <mergeCell ref="C219:C222"/>
-    <mergeCell ref="F208:F223"/>
-    <mergeCell ref="J208:J223"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="C212:C216"/>
-    <mergeCell ref="G212:G216"/>
-    <mergeCell ref="K212:K216"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="K217:K218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="L256:L260"/>
-    <mergeCell ref="D256:D260"/>
-    <mergeCell ref="H262:H263"/>
-    <mergeCell ref="L262:L263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="G256:G264"/>
-    <mergeCell ref="K256:K264"/>
-    <mergeCell ref="A162:A207"/>
-    <mergeCell ref="A208:A228"/>
-    <mergeCell ref="A229:A250"/>
-    <mergeCell ref="G251:G253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="K251:K253"/>
-    <mergeCell ref="B251:B255"/>
-    <mergeCell ref="F251:F255"/>
-    <mergeCell ref="J251:J255"/>
-    <mergeCell ref="A251:A277"/>
-    <mergeCell ref="F242:F244"/>
-    <mergeCell ref="J242:J244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="G248:G249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="K248:K249"/>
-    <mergeCell ref="B245:B250"/>
-    <mergeCell ref="K266:K267"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="F266:F268"/>
-    <mergeCell ref="J266:J268"/>
-    <mergeCell ref="F269:F273"/>
-    <mergeCell ref="J269:J273"/>
-    <mergeCell ref="B269:B273"/>
-    <mergeCell ref="C256:C264"/>
-    <mergeCell ref="F256:F265"/>
-    <mergeCell ref="J256:J265"/>
-    <mergeCell ref="B256:B265"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="H256:H260"/>
-    <mergeCell ref="C265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="C269:E269"/>
-    <mergeCell ref="C270:E270"/>
-    <mergeCell ref="C271:E271"/>
-    <mergeCell ref="C272:E272"/>
-    <mergeCell ref="C273:E273"/>
-    <mergeCell ref="K282:K283"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="G289:G290"/>
-    <mergeCell ref="K289:K290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="B282:B290"/>
-    <mergeCell ref="F282:F290"/>
-    <mergeCell ref="J282:J290"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="K275:K276"/>
-    <mergeCell ref="F274:F277"/>
-    <mergeCell ref="J274:J277"/>
-    <mergeCell ref="B274:B277"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="D275:E275"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="F292:F293"/>
-    <mergeCell ref="J292:J293"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="A282:A293"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B80:B112"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A278:A281"/>
-    <mergeCell ref="G282:G283"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="F245:F250"/>
-    <mergeCell ref="J245:J250"/>
-    <mergeCell ref="F229:F236"/>
-    <mergeCell ref="J229:J236"/>
-    <mergeCell ref="B229:B236"/>
-    <mergeCell ref="F237:F241"/>
-    <mergeCell ref="J237:J241"/>
-    <mergeCell ref="B237:B241"/>
-    <mergeCell ref="F224:F227"/>
-    <mergeCell ref="G224:G227"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B208:B223"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B114:B131"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="C183:E183"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="C223:E223"/>
-    <mergeCell ref="B204:E204"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B206:E206"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D217:E217"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
